--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_角色.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_角色.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="781">
   <si>
     <t>备注</t>
   </si>
@@ -94,16 +107,13 @@
     <t>CharacterInfo_长春子</t>
   </si>
   <si>
-    <t xml:space="preserve">道玄宗二代首席弟子，对同门十分关爱包容，在道玄宗中颇具人望。
-习武天赋极高，为人嫉恶如仇，但性格执拗、不懂变通。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">道玄宗二代首席弟子，對同門十分關愛包容，在道玄宗中頗具人望。
-習武天賦極高，為人嫉惡如仇，但性格執拗、不懂變通。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The second generation chief disciple of the Taoist Sect, very caring and tolerant towards fellow disciples, highly respected in the Taoist Sect.
-Highly talented in martial arts, a slayer of evil, but stubborn and inflexible.</t>
+    <t>道玄宗二代弟子，在道玄宗负责主持真武剑阵，调教入门弟子。为人正直谦逊、嫉恶如仇，颇得道玄宗掌教赏识；但其执拗、不懂变通的性格，让师叔邋遢张颇为无奈。</t>
+  </si>
+  <si>
+    <t>道玄宗二代弟子，在道玄宗負責主持真武劍陣，調教入門弟子。為人正直謙遜、嫉惡如仇，頗得道玄宗掌教賞識；但其執拗、不懂變通的性格，讓師叔邋遢張頗為無奈。</t>
+  </si>
+  <si>
+    <t>Second generation disciple of Taoist Sect, responsible for presiding over Zhenwu Sword Formation and training new disciples. He is upright, humble, and an Evil slayer, highly appreciated by the head of Taoist Sect; but his stubbornness and inflexibility make his uncle La Tazhang quite helpless.</t>
   </si>
   <si>
     <t>CharacterInfo_苗木黎</t>
@@ -119,131 +129,6 @@
   </si>
   <si>
     <t>CharacterInfo_洪小七</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游荡在无名小村里的小乞丐，整日游手好闲，不务正业。幸得无名小村大家的照顾，才勉强衣食无忧。
-关于他成为乞丐之前的事一直讳莫如深，旁人更是无从知晓。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遊蕩在無名小村裡的小乞丐，整日遊手好閒，不務正業。幸得無名小村大家的照顧，才勉強衣食無憂。
-關於他成為乞丐之前的事一直諱莫如深，旁人更是無從知曉。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A little beggar wandering in the Nameless village, idle all day, not doing any proper work. Thanks to the care of the villagers, he barely manages to get by.
-His past before becoming a beggar is a deep secret, unknown to others.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_任中横</t>
-  </si>
-  <si>
-    <t>圣火宗破军堂堂主，看起来是个粗人但是实际上心思细腻，为圣火宗选拔了不少出色的弟子。</t>
-  </si>
-  <si>
-    <t>聖火宗破軍堂堂主，看起來是個粗人但是實際上心思細膩，為聖火宗選拔了不少出色的弟子。</t>
-  </si>
-  <si>
-    <t>The master of the Pojun Hall of the Holy Fire Sect, appears rough but is actually thoughtful, has selected many outstanding disciples for the Holy Fire Sect.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_苗彩蝶</t>
-  </si>
-  <si>
-    <t>九黎部族圣女，部落族长苗木黎的妹妹。天性活泼天真，天生就能和蛊虫沟通，由于体质奇特，白发如雪，且身体如十岁女童难以长大。常年在部落内极少外出，因而对中原的一切事物充满了好奇。</t>
-  </si>
-  <si>
-    <t>九黎部族聖女，部落族長苗木黎的妹妹。天性活潑天真，天生就能和蠱蟲溝通，由於體質奇特，白髮如雪，且身體如十歲女童難以長大。常年在部落內極少外出，因而對中原的一切事物充滿了好奇。</t>
-  </si>
-  <si>
-    <t>The holy woman of the Jiuli Tribe, sister of the tribal chief Miao Muli. Naturally lively and innocent, born with the ability to communicate with insects. Due to her unique constitution, she has white hair like snow and her body is like a ten-year-old girl, unable to grow up. She rarely goes out of the tribe and is curious about everything in the Central Plains.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_释嗔</t>
-  </si>
-  <si>
-    <t>奇怪的僧人，不知为何被通缉负伤，经你的诊治才康复。棍棒功夫了得，但荤腥不戒、嗜酒如命，杀伐果断且出言不逊，行事作风完全不像个僧人。</t>
-  </si>
-  <si>
-    <t>奇怪的僧人，不知為何被通緝負傷，經你的診治才康復。棍棒功夫了得，但葷腥不戒、嗜酒如命，殺伐果斷且出言不遜，行事作風完全不像個僧人。</t>
-  </si>
-  <si>
-    <t>A strange monk, wounded and wanted for unknown reasons, recovered after your treatment. Excellent in stick fighting, but does not abstain from meat and wine, decisive in killing and rude in speech, completely unlike a monk.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_凌鸿轩</t>
-  </si>
-  <si>
-    <t>凌梦蝶的兄长，武林中的后起之秀，为了治疗妹妹的怪病而四处寻医问药，最后来到儒圣馆。为人高傲，对谁都没有好脸色，唯独对妹妹百依百顺。</t>
-  </si>
-  <si>
-    <t>凌夢蝶的兄長，武林中的後起之秀，為了治療妹妹的怪病而四處尋醫問藥，最後來到儒聖館。為人高傲，對誰都沒有好臉色，唯獨對妹妹百依百順。</t>
-  </si>
-  <si>
-    <t>{Ling Mengdie}'s elder brother, a rising star in the martial arts world, who travels everywhere seeking medical advice to cure his sister's strange disease, finally arrives at the Confucius Temple. He is arrogant and shows no good face to anyone, but is completely obedient to his sister.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_凌梦蝶</t>
-  </si>
-  <si>
-    <t>凌鸿轩的妹妹，天资聪颖且饱读诗书，对各门各派的武学都有极深的研究。天生患有怪病，元气不足，因而时常陷入昏睡之中。</t>
-  </si>
-  <si>
-    <t>凌鴻軒的妹妹，天資聰穎且飽讀詩書，對各門各派的武學都有極深的研究。天生患有怪病，元氣不足，因而時常陷入昏睡之中。</t>
-  </si>
-  <si>
-    <t>{Ling Hongxuan}'s younger sister, who is intelligent and well-read, has a deep understanding of the martial arts of various sects. She was born with a strange disease and lacks vitality, often falling into slumber.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_叶银瓶</t>
-  </si>
-  <si>
-    <t>叶鹏举之女，自幼跟随父亲在叶家军中长大，比起随军生活更向往如同传说般的大侠一样闯荡四海、结交好汉的江湖生活，但是本人却又经常无意间惹祸，最后还是要让叶鹏举出面摆平。</t>
-  </si>
-  <si>
-    <t>葉鵬舉之女，自幼跟隨父親在葉家軍中長大，比起隨軍生活更嚮往如同傳說般的大俠一樣闖蕩四海、結交好漢的江湖生活，但是本人卻又經常無意間惹禍，最後還是要讓葉鵬舉出面擺平。</t>
-  </si>
-  <si>
-    <t>Daughter of Ye Pengju, grew up with her father in the Ye Family Battalion, longing for the life of a legendary hero, adventuring across the four seas and making friends with heroes, but often unintentionally causing trouble, and in the end, Ye Pengju has to step in to settle things.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_佟道辅</t>
-  </si>
-  <si>
-    <t>皇城司的首脑，原本皇帝手下的红人，身居一人之下万人之上的要职，负责监察天下各大小势力的动态直达天听。随着皇帝被燕国俘虏，一时间政局动荡，他也在寻找自己的以后的靠山。</t>
-  </si>
-  <si>
-    <t>皇城司的首腦，原本皇帝手下的紅人，身居一人之下萬人之上的要職，負責監察天下各大小勢力的動態直達天聽。隨著皇帝被燕國俘虜，一時間政局動盪，他也在尋找自己的以後的靠山。</t>
-  </si>
-  <si>
-    <t>The head of the Imperial City Department, originally a favorite of the emperor, holding a high position, responsible for monitoring the movements of all forces in the world. With the emperor being captured by the Yan Kingdom, the political situation is turbulent, and he is also looking for his future backing.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_叶鹏举</t>
-  </si>
-  <si>
-    <t>叶家军的建立者，赵国的节度使。一生对赵国忠心耿耿，手下精兵众多，多次带兵抵御燕国南侵，战功赫赫。爱兵如子，对士兵的训练上颇有心得，但是对子女的教育很是头痛。</t>
-  </si>
-  <si>
-    <t>葉家軍的建立者，趙國的節度使。一生對趙國忠心耿耿，手下精兵眾多，多次帶兵抵禦燕國南侵，戰功赫赫。愛兵如子，對士兵的訓練上頗有心得，但是對子女的教育很是頭痛。</t>
-  </si>
-  <si>
-    <t>The founder of Ye Family Battalion, the Jiedushi of Zhao Kingdom. He was loyal to Zhao Kingdom all his life, with many elite soldiers under his command. He has led troops to resist the southern invasion of Yan Kingdom many times, with outstanding military achievements. He loves his soldiers like his own children and has a lot of insights into the training of soldiers, but he is very troubled by the education of his children.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_重阳子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">道玄宗的现任掌教，传说中的“八圣”之一。十数年前守卫楚襄城时身受重伤，一身武功尽失，但却因此领悟了万法自然的道理，武功反倒更胜往昔。
-道玄宗在他领导下，道玄宗弟子个个正气凛然，救世济民，颇具侠风。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">道玄宗的現任掌教，傳說中的“八聖”之一。十數年前守衛楚襄城時身受重傷，一身武功盡失，但卻因此領悟了萬法自然的道理，武功反倒更勝往昔。
-道玄宗在他領導下，道玄宗弟子個個正氣凜然，救世濟民，頗具俠風。</t>
-  </si>
-  <si>
-    <t>The current leader of Taoist Sect, one of the legendary "Eight Saints". He was seriously injured while defending Chuxiang City decades ago and lost all his martial arts skills, but he realized the truth of nature and his martial arts skills were even better than before. Under his leadership, the disciples of Taoist Sect are all upright and righteous, saving the world and helping the people, with a strong sense of chivalry.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_方啸天</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -253,8 +138,19 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>圣火宗宗主，传说中的“八圣”之一，守卫楚襄城之后按照八圣约定前往西域，随后在西域建立圣火宗，庇护落难百姓，威震西域。</t>
+      <t>游荡在无名小村里的小乞丐，整日游手好闲，凭借着小偷小摸的本事，这才勉强过上饥一顿饱一顿的日子。</t>
     </r>
+  </si>
+  <si>
+    <t>遊蕩在無名小村裏的小乞丐，整日遊手好閒，憑藉著小偷小摸的本事，這才勉強過上飢一頓飽一頓的日子。</t>
+  </si>
+  <si>
+    <t>A little beggar wandering in the Nameless village, idle all day, relying on petty theft to barely make ends meet.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_苗彩蝶</t>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10"/>
@@ -262,9 +158,19 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>九黎部族圣女，部落族长苗木黎的亲妹。天性活泼天真，天生就能和蛊虫沟通，由于从小被苗木黎在身上种下毒蛊，导致发白如雪，身如幼女。</t>
     </r>
+  </si>
+  <si>
+    <t>九黎部族聖女，部落族長苗木黎的親妹。天性活潑天真，天生就能和蠱蟲溝通，由於從小被苗木黎在身上種下毒蠱，導致發白如雪，身如幼女。</t>
+  </si>
+  <si>
+    <t>The holy woman of the Jiuli tribe, the younger sister of the tribal chief Miao Muli. She is lively and innocent by nature, and can naturally communicate with insects. Because she was poisoned by Miao Muli from a young age, her hair turned white as snow and she looks like a young girl.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_释嗔</t>
+  </si>
+  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10"/>
@@ -272,15 +178,119 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>在远居西域之后，方啸天反而看清了中原局势，想要在天下大乱前平息纷争，却不想此举会让天下更加动荡。</t>
+      <t>原是释法寺弟子，应召参军守卫边关，因功授为楚襄城校尉。后来偶然得知吕文桓通敌之事，不愿与其同流合污，于是遭受陷害，被官府通缉。不得已改头换面，再次以出家人形象四处游历。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">聖火宗宗主，傳說中的“八聖”之一，守衛楚襄城之後按照八聖約定前往西域，隨後在西域建立聖火宗，庇護落難百姓，威震西域。
-在遠居西域之後，方嘯天反而看清了中原局勢，想要在天下大亂前平息紛爭，卻不想此舉會讓天下更加動盪。</t>
-  </si>
-  <si>
-    <t>The leader of the Holy Fire Sect, one of the legendary "Eight Saints". After defending Chuxiang City, he went to the Western Regions according to the agreement of the Eight Saints, and then established the Holy Fire Sect in the Western Regions to protect the distressed people, and his power shook the Western Regions. After living in the Western Regions, Fang Xiaoian saw the situation in the Central Plains more clearly. He wanted to settle the disputes before the world was in chaos, but he didn't expect this move to make the world more turbulent.</t>
+    <t>原是釋法寺弟子，應召參軍守衛邊關，因功授為楚襄城校尉。後來偶然得知呂文桓通敵之事，不願與其同流合汙，於是遭受陷害，被官府通緝。不得已改頭換面，再次以出家人形象四處遊歷。</t>
+  </si>
+  <si>
+    <t>Originally a disciple of Shifa Temple, he was called to serve in the army to defend the border and was promoted to the rank of Chuxiang City. Later, he accidentally learned of Lü Wenhuan's collusion with the enemy. Unwilling to be corrupted, he was framed and wanted by the government. He had no choice but to change his appearance and travel around as a monk.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_凌鸿轩</t>
+  </si>
+  <si>
+    <t>凌梦蝶的兄长，武林中的后起之秀，为了治疗妹妹的怪病而四处寻医问药，最后来到儒圣馆。为人高傲，对谁都没有好脸色，唯独对妹妹百依百顺。</t>
+  </si>
+  <si>
+    <t>凌夢蝶的兄長，武林中的後起之秀，為了治療妹妹的怪病而四處尋醫問藥，最後來到儒聖館。為人高傲，對誰都沒有好臉色，唯獨對妹妹百依百順。</t>
+  </si>
+  <si>
+    <t>{Ling Mengdie}'s elder brother, a rising star in the martial arts world, who travels everywhere seeking medical advice to cure his sister's strange disease, finally arrives at the Confucius Temple. He is arrogant and shows no good face to anyone, but is completely obedient to his sister.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_凌梦蝶</t>
+  </si>
+  <si>
+    <t>凌鸿轩的妹妹，天资聪颖且饱读诗书，对各门各派的武学都有极深的研究。天生患有怪病，元气不足，因而时常陷入昏睡之中。</t>
+  </si>
+  <si>
+    <t>凌鴻軒的妹妹，天資聰穎且飽讀詩書，對各門各派的武學都有極深的研究。天生患有怪病，元氣不足，因而時常陷入昏睡之中。</t>
+  </si>
+  <si>
+    <t>{Ling Hongxuan}'s younger sister, who is intelligent and well-read, has a deep understanding of the martial arts of various sects. She was born with a strange disease and lacks vitality, often falling into slumber.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_叶银瓶</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶鹏举之女，自幼跟随父亲在叶家军中生活，她对军中枯燥乏味的规矩感到厌烦，心中向往自由自在、刀光剑影的江湖世界。可惜缺乏足够的见识和经验，行事又不够谨慎，常常惹出种种麻烦，只能一次次忍受被父亲禁足的惩罚。</t>
+    </r>
+  </si>
+  <si>
+    <t>葉鵬舉之女，自幼跟隨父親在葉家軍中生活，她對軍中枯燥乏味的規矩感到厭煩，心中嚮往自由自在、刀光劍影的江湖世界。可惜缺乏足夠的見識和經驗，行事又不夠謹慎，常常惹出種種麻煩，只能一次次忍受被父親禁足的懲罰。</t>
+  </si>
+  <si>
+    <t>The daughter of Ye Pengju, she grew up with her father in the Ye Family Battalion. She is bored with the dull rules of the army and yearns for the free and exciting world of martial arts. Unfortunately, she lacks enough knowledge and experience, and is not cautious enough in her actions. She often causes various troubles and can only endure being grounded by her father time and time again.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_佟道辅</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皇城司的首脑，原本皇帝手下的红人，身居一人之下万人之上的要职，负责监察天下各大小势力的动态直达天听。随着皇帝被燕国俘虏，一时间政局动荡，他也在各处下注寻找适合自己的靠山。</t>
+    </r>
+  </si>
+  <si>
+    <t>皇城司的首腦，原本皇帝手下的紅人，身居一人之下萬人之上的要職，負責監察天下各大小勢力的動態直達天聽。隨著皇帝被燕國俘虜，一時間政局動盪，他也在各處下注尋找適合自己的靠山。</t>
+  </si>
+  <si>
+    <t>The head of the Imperial City Department, originally a favorite of the emperor, held a high-ranking position under the emperor, responsible for monitoring the dynamics of all forces in the world. With the emperor being captured by the Yan Kingdom, the political situation was turbulent for a while, and he also placed bets everywhere looking for a suitable backer.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_叶鹏举</t>
+  </si>
+  <si>
+    <t>叶家军的建立者，赵国的节度使。一生对赵国忠心耿耿，手下精兵众多，多次带兵抵御燕国南侵，战功赫赫。爱兵如子，对士兵的训练上颇有心得，但是对子女的教育很是头痛。</t>
+  </si>
+  <si>
+    <t>葉家軍的建立者，趙國的節度使。一生對趙國忠心耿耿，手下精兵眾多，多次帶兵抵禦燕國南侵，戰功赫赫。愛兵如子，對士兵的訓練上頗有心得，但是對子女的教育很是頭痛。</t>
+  </si>
+  <si>
+    <t>The founder of Ye Family Battalion, the Jiedushi of Zhao Kingdom. He was loyal to Zhao Kingdom all his life, with many elite soldiers under his command. He has led troops to resist the southern invasion of Yan Kingdom many times, with outstanding military achievements. He loves his soldiers like his own children and has a lot of insights into the training of soldiers, but he is very troubled by the education of his children.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_重阳子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">道玄宗的现任掌教，传说中的“八圣”之一。十数年前守卫楚襄城时身受重伤，一身武功尽失，但却因此领悟了万法自然的道理，武功反倒更胜往昔。
+道玄宗在他领导下，道玄宗弟子个个正气凛然，救世济民，颇具侠风。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">道玄宗的現任掌教，傳說中的“八聖”之一。十數年前守衛楚襄城時身受重傷，一身武功盡失，但卻因此領悟了萬法自然的道理，武功反倒更勝往昔。
+道玄宗在他領導下，道玄宗弟子個個正氣凜然，救世濟民，頗具俠風。</t>
+  </si>
+  <si>
+    <t>The current leader of Taoist Sect, one of the legendary "Eight Saints". He was seriously injured while defending Chuxiang City decades ago and lost all his martial arts skills, but he realized the truth of nature and his martial arts skills were even better than before. Under his leadership, the disciples of Taoist Sect are all upright and righteous, saving the world and helping the people, with a strong sense of chivalry.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_方啸天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圣火宗宗主，实力不凡，不逊于任何一个中原门派掌门。
+野心勃勃，立志要称霸大漠，建立不世基业。手中有一份不完整的藏宝图，心心念念有生之年要发掘宝藏的秘密。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聖火宗宗主，實力不凡，不遜於任何一個中原門派掌門。
+野心勃勃，立志要稱霸大漠，建立不世基業。手中有一份不完整的藏寶圖，心心念念有生之年要發掘寶藏的秘密。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The leader of the Holy Fire Sect, with extraordinary strength, is not inferior to any leader of the Central Plains sect.
+Ambitious, aiming to dominate the desert and establish an unprecedented foundation. He holds an incomplete treasure map and is eager to uncover the secret of the treasure in his lifetime.</t>
   </si>
   <si>
     <t>CharacterInfo_柴王爷</t>
@@ -292,19 +302,27 @@
     <t>前朝的皇室後裔，在本朝中也仍舊擁有高貴的身份，能夠和齊王、康王等人平起平坐。雖不是江湖人士，卻和江湖各大門派交好，對江湖大小事件瞭如指掌。</t>
   </si>
   <si>
-    <t>The descendant of the former dynasty's royal family, who still has a noble status in this dynasty, can sit on an equal footing with Qi Wang and Kang Wang. Although he is not a martial artist, he is well acquainted with all the major sects in the martial arts world and knows all the major events in the martial arts world.</t>
+    <t>The descendant of the former dynasty's royal family, who still has a noble status in this dynasty, can sit on an equal footing with Duke Qi and Duke Kang. Although he is not a martial artist, he is well acquainted with all the major sects in the martial arts world and knows all the major events in the martial arts world.</t>
   </si>
   <si>
     <t>CharacterInfo_邋遢张</t>
   </si>
   <si>
-    <t>重阳子师弟，武学奇才，武功高深到不可思议的境界。只不过生性懒散、好酒贪杯。穿着邋遢无比，宛如乞丐，和释法寺的癞头癫一起被江湖人士戏称“逍遥二仙”。</t>
-  </si>
-  <si>
-    <t>重陽子師弟，武學奇才，武功高深到不可思議的境界。只不過生性懶散、好酒貪杯。穿著邋遢無比，宛如乞丐，和釋法寺的癩頭癲一起被江湖人士戲稱“逍遙二仙”。</t>
-  </si>
-  <si>
-    <t>Zhong Yangzi's junior brother, a martial genius, his martial arts skills are incredibly advanced. But he is naturally lazy and loves to drink. He is extremely sloppy in his dress, like a beggar, and is jokingly called the "Carefree duo" with Lai Toudian from Shifa Temple.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重阳子师弟，好酒贪杯，但是天资卓绝，竟然以酒道入武道，达到了常人难以企及的境界。生性懒散，不拘小节，最看不惯道貌岸然之辈。</t>
+    </r>
+  </si>
+  <si>
+    <t>重陽子師弟，好酒貪杯，但是天資卓絕，竟然以酒道入武道，達到了常人難以企及的境界。生性懶散，不拘小節，最看不慣道貌岸然之輩。</t>
+  </si>
+  <si>
+    <t>Zhong Yangzi's junior brother, a lover of wine, but with extraordinary talent, he entered the Passive through the way of wine, reaching a realm that ordinary people can hardly reach. He is lazy by nature, does not care about trivial matters, and dislikes pretentious people the most.</t>
   </si>
   <si>
     <t>CharacterInfo_蔡元常</t>
@@ -322,25 +340,33 @@
     <t>CharacterInfo_蔡攸之</t>
   </si>
   <si>
-    <t>蔡元常的独生子，也是蔡元常钦定的儒圣馆接班人，虽然年纪轻轻却本事过人，是有史以来闯过四贤风流阵的人中最年轻的一位，让人不禁对他寄予厚望。</t>
-  </si>
-  <si>
-    <t>蔡元常的獨生子，也是蔡元常欽定的儒聖館接班人，雖然年紀輕輕卻本事過人，是有史以來闖過四賢風流陣的人中最年輕的一位，讓人不禁對他寄予厚望。</t>
-  </si>
-  <si>
-    <t>Cai Yuanchang's only son, also the designated successor of the Confucius Temple by Cai Yuanchang. Although he is young, he is capable and is the youngest person in history to have passed the Four Sages' Formation, which makes people have high hopes for him.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蔡元常的独生子，也是蔡元常内定的儒圣馆接班人。</t>
+    </r>
+  </si>
+  <si>
+    <t>蔡元常的獨生子，也是蔡元常內定的儒聖館接班人。</t>
+  </si>
+  <si>
+    <t>The only son of Cai Yuanchang, and also the designated successor of the Confucius Temple by Cai Yuanchang.</t>
   </si>
   <si>
     <t>CharacterInfo_损道人</t>
   </si>
   <si>
-    <t>原本是游历四方的云游道士，落魄后被江南怪赏识，自此在脏街常驻，假借白云观道士的身份招摇撞骗，楚襄城内不知有多少百姓着了他的道。</t>
-  </si>
-  <si>
-    <t>原本是遊歷四方的雲遊道士，落魄後被江南怪賞識，自此在髒街常駐，假借白雲觀道士的身份招搖撞騙，楚襄城內不知有多少百姓著了他的道。</t>
-  </si>
-  <si>
-    <t>Originally a wandering Taoist priest, he was appreciated by Jiang Nanguai when he was down and out. Since then, he has been a regular in Dirty Street, pretending to be a Taoist priest from White Cloud Temple and deceiving people. Many people in Chuxiang City have been fooled by him.</t>
+    <t>原本是游历四方的云游道士，落魄后被江南怪赏识，假借白云观道士的身份招摇撞骗，楚襄城内不知有多少百姓着了他的道。其真实身份其实是九流门的四管事之一，本事更实在江南怪之上。</t>
+  </si>
+  <si>
+    <t>原本是遊歷四方的雲遊道士，落魄後被江南怪賞識，假借白雲觀道士的身份招搖撞騙，楚襄城內不知有多少百姓著了他的道。其真實身份其實是九流門的四管事之一，本事更實在江南怪之上。</t>
+  </si>
+  <si>
+    <t>Originally a wandering Taoist priest, he was appreciated by Jiang Nanguai when he was down and out. He swindled under the guise of a Taoist priest from the White Cloud Temple, and many people in Chuxiang City were fooled by him. His real identity is actually one of the four managers of the Nine Factions Sect, and his skills are even better than Jiang Nanguai's.</t>
   </si>
   <si>
     <t>CharacterInfo_邪戏子</t>
@@ -358,13 +384,13 @@
     <t>CharacterInfo_曼陀罗</t>
   </si>
   <si>
-    <t>生活于琼花谷中的的西域舞娘，柔媚至极，无数男性为了一睹其芳容来到琼花谷，但关于她的一切事情都是个谜。</t>
-  </si>
-  <si>
-    <t>生活於瓊花谷中的的西域舞娘，柔媚至極，無數男性為了一睹其芳容來到瓊花谷，但關於她的一切事情都是個謎。</t>
-  </si>
-  <si>
-    <t>The western dancer living in Epiphyllum Valley, extremely charming, countless men come to Epiphyllum Valley to see her beauty, but everything about her is a mystery.</t>
+    <t>神秘的西域舞娘，姿颜绝代，任何男人看见她哪怕一眼也会倾心于她。因对世上男性失望，而隐居于琼花谷中，和自然山水、飞禽走兽为伴。</t>
+  </si>
+  <si>
+    <t>神秘的西域舞娘，姿顏絕代，任何男人看見她哪怕一眼也會傾心於她。因對世上男性失望，而隱居於瓊花谷中，和自然山水、飛禽走獸為伴。</t>
+  </si>
+  <si>
+    <t>Mysterious dancer from the Western Regions, with unparalleled beauty, any man who sees her, even just a glance, will fall for her. Disappointed with the men in the world, she chose to live in seclusion in Snowflower Valley, accompanied by nature, birds and beasts.</t>
   </si>
   <si>
     <t>CharacterInfo_步绝尘</t>
@@ -376,7 +402,7 @@
     <t>燕子窩首領，有一身踏雪無痕的好輕功，經常潛入大戶人家盜取錢財和食物來救濟窮人。</t>
   </si>
   <si>
-    <t>The leader of Nest of Swallow, who has a good Qinggong of Traceless step, often sneaks into wealthy families to steal money and food to help the poor.</t>
+    <t>The leader of Swallow Nest, who has a good Qinggong of Traceless step, often sneaks into wealthy families to steal money and food to help the poor.</t>
   </si>
   <si>
     <t>CharacterInfo_华严</t>
@@ -394,25 +420,41 @@
     <t>CharacterInfo_慧元</t>
   </si>
   <si>
-    <t>释法寺住持，传说中的“八圣”之一，守卫楚襄城后回到释法寺弘扬佛法，超度数十年兵戈之下的亡魂。另一面大开佛门，庇护百姓，又多次派出僧兵破坏燕国的军事计划，逐渐成为燕国的眼中钉。</t>
-  </si>
-  <si>
-    <t>釋法寺住持，傳說中的“八聖”之一，守衛楚襄城後回到釋法寺弘揚佛法，超度數十年兵戈之下的亡魂。另一面大開佛門，庇護百姓，又多次派出僧兵破壞燕國的軍事計劃，逐漸成為燕國的眼中釘。</t>
-  </si>
-  <si>
-    <t>The abbot of Shifa Temple, one of the legendary "Eight Saints". After defending Chuxiang City, he returned to Shifa Temple to promote Buddhism and save the souls of those who had died in wars for decades. On the other hand, he opened the door of Buddhism to protect the people, and sent out monk soldiers to disrupt Yan Kingdom's military plans many times, gradually becoming a thorn in the eye of Yan Kingdom.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释法寺住持，传说中的“八圣”之一，守卫楚襄城后回到释法寺弘扬佛法，超度数十年兵戈之下的亡魂。另一面大开佛门，庇护百姓，又多次派出僧兵破坏燕国的军事计划，以致遭受燕军首脑的怨恨。</t>
+    </r>
+  </si>
+  <si>
+    <t>釋法寺住持，傳說中的“八聖”之一，守衛楚襄城後回到釋法寺弘揚佛法，超度數十年兵戈之下的亡魂。另一面大開佛門，庇護百姓，又多次派出僧兵破壞燕國的軍事計劃，以致遭受燕軍首腦的怨恨。</t>
+  </si>
+  <si>
+    <t>The abbot of Shifa Temple, one of the legendary "Eight Saints". After defending Chuxiang City, he returned to Shifa Temple to promote Buddhism and save the souls of those who died in decades of war. On the other hand, he opened the door of Buddhism to shelter the people, and repeatedly sent monk soldiers to sabotage the military plans of the Yan Kingdom, which caused him to be hated by the head of the Yan army.</t>
   </si>
   <si>
     <t>CharacterInfo_癞头癫</t>
   </si>
   <si>
-    <t>释法寺的游方僧人，慧元住持的师弟。其人无拘无束，不颂佛不念经，行为举止怪异且荤腥不忌，但是却扶危救困，多处帮助百姓，被百姓尊为活菩萨。江湖人常把他和道玄宗的邋遢张一并戏称为“逍遥二仙”。</t>
-  </si>
-  <si>
-    <t>釋法寺的遊方僧人，慧元住持的師弟。其人無拘無束，不頌佛不唸經，行為舉止怪異且葷腥不忌，但是卻扶危救困，多處幫助百姓，被百姓尊為活菩薩。江湖人常把他和道玄宗的邋遢張一併戲稱為“逍遙二仙”。</t>
-  </si>
-  <si>
-    <t>A wandering monk from Shifa Temple, and the junior brother of Abbot Hui Yuan. He is carefree, does not chant sutras or worship Buddha, and his behavior is eccentric and he is a meat eater. However, he helps those in need and has helped many people, earning him the respect of the people as a living Bodhisattva. People in the martial arts world often jokingly refer to him and La Tazhang of the Taoist Sect as the "Carefree duo".</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释法寺的游方僧人，慧元住持的师弟。其人无拘无束，不颂佛不念经，行为举止怪异且荤腥不忌，但是心怀慈悲，屡次扶危救困，被百姓尊为活菩萨。</t>
+    </r>
+  </si>
+  <si>
+    <t>釋法寺的遊方僧人，慧元住持的師弟。其人無拘無束，不頌佛不唸經，行為舉止怪異且葷腥不忌，但是心懷慈悲，屢次扶危救困，被百姓尊為活菩薩。</t>
+  </si>
+  <si>
+    <t>A wandering monk from Shifa Temple, a disciple of Abbot Hui Yuan. He is carefree, does not chant sutras or worship Buddha, behaves strangely and is a meat eater. However, he is compassionate and has helped many in need, earning him the respect of the people as a living Bodhisattva.</t>
   </si>
   <si>
     <t>CharacterInfo_秦会之</t>
@@ -424,19 +466,19 @@
     <t>康王的心腹文臣，在康王府內地位頗高，頗得康王的信任，康王對其更是言聽計從。</t>
   </si>
   <si>
-    <t>A trusted civil official of Kang Wang, he holds a high position in Duke Kang's manor and has earned Kang Wang's trust. Kang Wang often follows his advice.</t>
+    <t>A trusted civil official of Duke Kang, he holds a high position in Duke Kang's manor and has earned Duke Kang's trust. Duke Kang often follows his advice.</t>
   </si>
   <si>
     <t>CharacterInfo_完颜昭宁</t>
   </si>
   <si>
-    <t>燕国的郡主，想要为国出力却因为女儿身而不被允许踏上战场。</t>
-  </si>
-  <si>
-    <t>燕國的郡主，想要為國出力卻因為女兒身而不被允許踏上戰場。</t>
-  </si>
-  <si>
-    <t>The princess of Yan country, who wants to contribute to the country but is not allowed to step onto the battlefield because of her gender.</t>
+    <t>燕国的郡主，完颜乌珠的侄女、完颜亮的族妹。有不输男儿的雄心壮志和才能，想要通过帮助完颜乌珠统一天下而消除战乱，造就太平天下。</t>
+  </si>
+  <si>
+    <t>燕國的郡主，完顏烏珠的侄女、完顏亮的族妹。有不輸男兒的雄心壯志和才能，想要透過幫助完顏烏珠統一天下而消除戰亂，造就太平天下。</t>
+  </si>
+  <si>
+    <t>The princess of Yan Kingdom, the niece of Wanyan Wuzhu and the cousin of Wanyan Liang. She has the ambition and talent of a man, and wants to eliminate wars and create a peaceful world by helping Wanyan Wuzhu unify the world.</t>
   </si>
   <si>
     <t>CharacterInfo_恶乞丐</t>
@@ -488,106 +530,10 @@
 對毒物瞭解頗深，可以讓人中毒於無形，中毒者往往發現自己中毒時已經毒入膏肓，無藥可救。</t>
   </si>
   <si>
-    <t>One of the four stewards of the Nine Factions Sect, he was once a disciple of the Plant Sect and the junior brother of Qu Wangyou. He ran away from the Plant Sect because he was not chosen as the sect leader. He has a deep understanding of toxins and can poison people without them knowing. Those who are poisoned often find that they are beyond help by the time they realize they are poisoned.</t>
+    <t>One of the four stewards of the Nine Factions Sect, he was once a disciple of the Herbology Sect and the junior brother of Qu Wangyou. He ran away from the Herbology Sect because he was not chosen as the sect leader. He has a deep understanding of toxins and can poison people without them knowing. Those who are poisoned often find that they are beyond help by the time they realize they are poisoned.</t>
   </si>
   <si>
     <t>CharacterInfo_庖春秋</t>
-  </si>
-  <si>
-    <t>大梁城肉铺的掌柜，祖上世世代代皆为皇室御厨，但祖传手艺失传，庖春秋也落魄为大梁城内一个普通的肉铺掌柜。</t>
-  </si>
-  <si>
-    <t>大梁城肉鋪的掌櫃，祖上世世代代皆為皇室御廚，但祖傳手藝失傳，庖春秋也落魄為大梁城內一個普通的肉鋪掌櫃。</t>
-  </si>
-  <si>
-    <t>The owner of the butcher's shop in Daliang City. His ancestors were royal chefs for generations, but the ancestral skills were lost, and Pao Chunqiu became the owner of a regular butcher's shop in Daliang City.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_秦阎罗</t>
-  </si>
-  <si>
-    <t>玄衣会的会主，只认钱不认人的家伙，只要能出合适的价码，就算天王老子他也能毫无顾忌地处理掉。正所谓“阎王叫你三更死，谁敢留你到五更。”</t>
-  </si>
-  <si>
-    <t>玄衣會的會主，只認錢不認人的傢伙，只要能出合適的價碼，就算天王老子他也能毫無顧忌地處理掉。正所謂“閻王叫你三更死，誰敢留你到五更。”</t>
-  </si>
-  <si>
-    <t>The leader of the Black Robe Group, a guy who only recognizes money and not people. As long as the price is right, he can deal with anyone without hesitation, even if it's the king. As the saying goes, "If the King of Hell wants you to die at the third watch, who dares to keep you till the fifth watch."</t>
-  </si>
-  <si>
-    <t>CharacterInfo_叶云</t>
-  </si>
-  <si>
-    <t>叶鹏举长子，叶家军的先锋将。天生神力，作为先锋屡立战功，但是却不理解父亲的谨慎战略，觉得就应当一鼓作气长驱直入消灭燕国。</t>
-  </si>
-  <si>
-    <t>葉鵬舉長子，葉家軍的先鋒將。天生神力，作為先鋒屢立戰功，但是卻不理解父親的謹慎戰略，覺得就應當一鼓作氣長驅直入消滅燕國。</t>
-  </si>
-  <si>
-    <t>The eldest son of Ye Pengju and the vanguard of the Ye Family Battalion. He has Herculean strength and has made many military achievements as a vanguard, but he does not understand his father's cautious strategy and believes that they should strike first and drive straight in to eliminate the Yan Kingdom.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_完颜乌珠</t>
-  </si>
-  <si>
-    <t>燕国四皇子，燕云铁军的大元帅，曾成功掳走赵国皇帝，并扶植齐王，假借赵国皇帝名义命齐王监国率领燕云铁军虎踞中州，伺机南下侵吞整个赵国领土。</t>
-  </si>
-  <si>
-    <t>燕國四皇子，燕雲鐵軍的大元帥，曾成功擄走趙國皇帝，並扶植齊王，假借趙國皇帝名義命齊王監國率領燕雲鐵軍虎踞中州，伺機南下侵吞整個趙國領土。</t>
-  </si>
-  <si>
-    <t>The fourth prince of the Yan Kingdom and the grand marshal of the Yan Yun Iron Army. He successfully captured the emperor of the Zhao Kingdom and supported Qi Wang, commanding Qi Wang to rule the country in the name of the Zhao emperor and lead the Yan Yun Iron Army to dominate the Central Plains, ready to invade and swallow the entire territory of the Zhao Kingdom.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_完颜亮</t>
-  </si>
-  <si>
-    <t>燕国皇族，完颜乌珠的侄子兼副手。为完颜乌珠出谋划策，定下了一系列针对江湖势力的计策，并使用各种手段分化、笼络江湖人士，意图为之后南侵扫清障碍。</t>
-  </si>
-  <si>
-    <t>燕國皇族，完顏烏珠的侄子兼副手。為完顏烏珠出謀劃策，定下了一系列針對江湖勢力的計策，並使用各種手段分化、籠絡江湖人士，意圖為之後南侵掃清障礙。</t>
-  </si>
-  <si>
-    <t>A member of the Yan royal family, the nephew and deputy of Wan Yan Wuzhu. He advises Wan Yan Wuzhu and has set a series of strategies against the martial arts forces, using various means to divide and win over the martial arts people, intending to clear the obstacles for the subsequent southern invasion.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_萧元霸</t>
-  </si>
-  <si>
-    <t>曾是燕国皇室豢养的奴隶，身体强壮力大无穷，被完颜乌珠发现其不凡之处，于是带回燕云铁军悉心栽培。数年后，萧元霸成为勇冠三军的先锋猛将，立下赫赫战功。</t>
-  </si>
-  <si>
-    <t>曾是燕國皇室豢養的奴隸，身體強壯力大無窮，被完顏烏珠發現其不凡之處，於是帶回燕雲鐵軍悉心栽培。數年後，蕭元霸成為勇冠三軍的先鋒猛將，立下赫赫戰功。</t>
-  </si>
-  <si>
-    <t>He was once a slave raised by the Yan royal family. He is strong and powerful, and was discovered by Wan Yan Wuzhu, who brought him back to the Yan Yun Iron Army for careful cultivation. A few years later, Xiao Yuanba became a brave vanguard general who has made great military achievements.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_定风波</t>
-  </si>
-  <si>
-    <t>九江水寨的寨主，打出“等贵贱、均贫富”的旗号召集了大量追随者，势力之大甚至能和军队相提并论。在军事诸葛神机的提议下，想要进一步扩大自身势力，和康王平分江南。</t>
-  </si>
-  <si>
-    <t>九江水寨的寨主，打出“等貴賤、均貧富”的旗號召集了大量追隨者，勢力之大甚至能和軍隊相提並論。在軍事諸葛神機的提議下，想要進一步擴大自身勢力，和康王平分江南。</t>
-  </si>
-  <si>
-    <t>The leader of the Jiujiang Water Camp, he has gathered a large number of followers under the banner of "equality of all, sharing of wealth", and his power is so great that it can be compared with the army. Under the proposal of the military strategist Zhu Ge Shenji, he wants to further expand his power and share Jiangnan with Kang Wang.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_诸葛神机</t>
-  </si>
-  <si>
-    <t>九江水寨的军师，颇得定风波的信赖，给定风波制下了平分江南、水路称王的目标。</t>
-  </si>
-  <si>
-    <t>九江水寨的軍師，頗得定風波的信賴，給定風波制下了平分江南、水路稱王的目標。</t>
-  </si>
-  <si>
-    <t>The military strategist of the Jiujiang Water Camp, who has earned Ding Fengbo's trust, and has set the goal of dividing Jiangnan and ruling the waterways for Ding Fengbo.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_定海棠</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -597,34 +543,110 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>九江水寨的二当家、定风波的亲妹妹，负责九江水寨上上下下各处事宜，在她的治理下九江水寨井井有条。</t>
+      <t>大梁城肉铺的掌柜，祖上世世代代皆为皇室御厨，但祖传手艺失传，庖春秋也落魄为大梁城内一个普通的肉铺掌柜。</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对诸葛神机的行为十分不满，也不认同瓜分江南的策略。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">九江水寨的二當家、定風波的親妹妹，負責九江水寨上上下下各處事宜，在她的治理下九江水寨井井有條。
-對諸葛神機的行為十分不滿，也不認同瓜分江南的策略。</t>
-  </si>
-  <si>
-    <t>The second in command of the Jiujiang Water Camp and Ding Fengbo's younger sister, she is in charge of all matters in the Jiujiang Water Camp, which is well-organized under her management. She is very dissatisfied with Zhu Ge Shenji's actions and does not agree with the strategy of dividing Jiangnan.</t>
+  </si>
+  <si>
+    <t>大梁城肉鋪的掌櫃，祖上世世代代皆為皇室御廚，但祖傳手藝失傳，庖春秋也落魄為大梁城內一個普通的肉鋪掌櫃。</t>
+  </si>
+  <si>
+    <t>The owner of the butcher's shop in Daliang City. His ancestors were royal chefs for generations, but the ancestral skills were lost, and Pao Chunqiu became the owner of a regular butcher's shop in Daliang City.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_秦阎罗</t>
+  </si>
+  <si>
+    <t>霖安城聚财坊的主人，和大梁城的一枝花有些过节，为击败一枝花不惜借用蚍蜉城的力量。</t>
+  </si>
+  <si>
+    <t>霖安城聚財坊的主人，和大梁城的一枝花有些過節，為擊敗一枝花不惜借用蚍蜉城的力量。</t>
+  </si>
+  <si>
+    <t>The owner of the Relic House in Lin'an City, he has a grudge against Yi Zhihua from Daliang City and is willing to use the power of Dragonfly City to defeat him.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_叶云</t>
+  </si>
+  <si>
+    <t>叶鹏举长子，叶家军的先锋官，天生神力，屡立战功。性格暴躁冲动，经常违反军令擅自出战，虽然侥幸获胜，但是仍然遭受军规责罚，心中颇有怨念。</t>
+  </si>
+  <si>
+    <t>葉鵬舉長子，葉家軍的先鋒官，天生神力，屢立戰功。性格暴躁衝動，經常違反軍令擅自出戰，雖然僥倖獲勝，但是仍然遭受軍規責罰，心中頗有怨念。</t>
+  </si>
+  <si>
+    <t>The eldest son of Ye Pengju, the vanguard officer of the Ye Family Battalion, possesses Herculean strength and has made numerous military achievements. He is impulsive and often disobeys military orders to fight on his own. Although he often wins by luck, he still gets punished according to military regulations, which makes him resentful.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_完颜乌珠</t>
+  </si>
+  <si>
+    <t>燕国四皇子，燕云铁军的大元帅，曾成功掳走赵国皇帝，并扶植齐王，假借赵国皇帝名义命齐王监国率领燕云铁军虎踞中州，伺机南下侵吞整个赵国领土。</t>
+  </si>
+  <si>
+    <t>燕國四皇子，燕雲鐵軍的大元帥，曾成功擄走趙國皇帝，並扶植齊王，假借趙國皇帝名義命齊王監國率領燕雲鐵軍虎踞中州，伺機南下侵吞整個趙國領土。</t>
+  </si>
+  <si>
+    <t>The fourth prince of the Yan Kingdom and the grand marshal of the Yan Yun Iron Army. He successfully captured the emperor of the Zhao Kingdom and supported Duke Qi, commanding Duke Qi to rule the country in the name of the Zhao emperor and lead the Yan Yun Iron Army to dominate the Central Plains, ready to invade and swallow the entire territory of the Zhao Kingdom.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_完颜亮</t>
+  </si>
+  <si>
+    <t>燕国皇族，完颜乌珠的侄子兼副手。为完颜乌珠出谋划策，定下了一系列针对江湖势力的计策，并使用各种手段分化、笼络江湖人士，意图为之后南侵扫清障碍。</t>
+  </si>
+  <si>
+    <t>燕國皇族，完顏烏珠的侄子兼副手。為完顏烏珠出謀劃策，定下了一系列針對江湖勢力的計策，並使用各種手段分化、籠絡江湖人士，意圖為之後南侵掃清障礙。</t>
+  </si>
+  <si>
+    <t>A member of the royal family of the Yan Kingdom, he is the nephew and right-hand man of Wanyan Wuzhu. He assists Wanyan Wuzhu in devising strategies, setting a series of plans against the martial arts forces. Employing various methods, he seeks to divide and entice individuals within the martial arts community, intending to eliminate obstacles for the subsequent southern invasion.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_萧元霸</t>
+  </si>
+  <si>
+    <t>曾是燕国皇室豢养的奴隶，身体强壮力大无穷，被完颜乌珠发现其不凡之处，于是带回燕云铁军悉心栽培。数年后，萧元霸成为勇冠三军的先锋猛将，立下赫赫战功。</t>
+  </si>
+  <si>
+    <t>曾是燕國皇室豢養的奴隸，身體強壯力大無窮，被完顏烏珠發現其不凡之處，於是帶回燕雲鐵軍悉心栽培。數年後，蕭元霸成為勇冠三軍的先鋒猛將，立下赫赫戰功。</t>
+  </si>
+  <si>
+    <t>Once a slave nurtured by the royal family of the Yan Kingdom, Xiao Yuanba possessed immense physical strength and boundless power. His extraordinary qualities caught the attention of Wanyan Wuzhu, who decided to bring him back to Yan Yun Iron Army for attentive nurturing. Over the course of several years, Xiao Yuanba emerged as a formidable vanguard general, leading the charge in numerous battles and achieving remarkable military feats, earning him a reputation as a fearless and distinguished warrior.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_定风波</t>
+  </si>
+  <si>
+    <t>九江水寨的寨主，打出“等贵贱、均贫富”的旗号召集了大量追随者，势力之大甚至能和军队相提并论。在军师诸葛神机的提议下，想要进一步扩大自身势力，和康王平分江南。</t>
+  </si>
+  <si>
+    <t>九江水寨的寨主，打出“等貴賤、均貧富”的旗號召集了大量追隨者，勢力之大甚至能和軍隊相提並論。在軍師諸葛神機的提議下，想要進一步擴大自身勢力，和康王平分江南。</t>
+  </si>
+  <si>
+    <t>The leader of Jiujiang Fortress, who has gathered a large number of followers under the banner of "equality of nobles and commoners, sharing wealth and poverty", and whose power is even comparable to that of the army. Under the suggestion of military adviser Zhuge Shenji, he wants to further expand his power and share the south of the Yangtze River with Duke Kang.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_诸葛神机</t>
+  </si>
+  <si>
+    <t>九江水寨的军师，颇得定风波的信赖。实际上内心对定风波颇有不满，觉得自己应该能获得比现在更高的地位，因而和康王暗中联系，计划夺取水寨。</t>
+  </si>
+  <si>
+    <t>九江水寨的軍師，頗得定風波的信賴。實際上內心對定風波頗有不滿，覺得自己應該能獲得比現在更高的地位，因而和康王暗中聯絡，計劃奪取水寨。</t>
+  </si>
+  <si>
+    <t>The military advisor of Jiujiang Fotress, who has won the trust of Ding Fengbo. In fact, he is quite dissatisfied with Ding Fengbo and feels that he should have a higher position. Therefore, he is secretly in contact with Duke Kang, planning to seize the water village.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_定海棠</t>
+  </si>
+  <si>
+    <t>九江水寨的二当家、定风波的侄女，负责帮助叔父处理九江水寨大大小小的事宜，或许是在水寨中长大，从小就一身男子气，没有几分女孩子的温婉，但不经意之间还是会透露出几分可爱。</t>
+  </si>
+  <si>
+    <t>九江水寨的二當家、定風波的侄女，負責幫助叔父處理九江水寨大大小小的事宜，或許是在水寨中長大，從小就一身男子氣，沒有幾分女孩子的溫婉，但不經意之間還是會透露出幾分可愛。</t>
+  </si>
+  <si>
+    <t>The second master of Jiujiang Fotress, Ding Fengbo's niece, is responsible for helping her uncle handle all matters of Jiujiang Fotress. Perhaps because she grew up in the water village, she has a masculine air from a young age, without much gentleness of a girl, but she occasionally reveals a bit of cuteness.</t>
   </si>
   <si>
     <t>CharacterInfo_穆再兴</t>
@@ -713,19 +735,27 @@
     <t>琅琊劍閣弟子，鑄劍巨擘歐冶子的後代，年少時家逢鉅變，巧遇劍痴拜訪才僥倖得救。劍痴怕他心魔未去，一心復仇墮入邪道，不傳他武藝僅授他鑄劍之法，但歐冶恆頗有天賦，竟在鑄劍之法中悟出劍術。</t>
   </si>
   <si>
-    <t>A disciple of Langya Sword Pavilion, a descendant of the swordsmith giant Ou Yezi, who experienced a great change in his family when he was young, and was luckily saved by Jian Chi's visit. Jian Chi was afraid that he still had demons in his heart and would fall into the evil way if he sought revenge, so he only taught him the method of sword casting, but Ou Ye Heng was quite talented and realized swordsmanship in the method of sword casting.</t>
+    <t>A disciple of Langya Sword Pavilion, a descendant of the swordsmith giant Ou Yezi, who experienced a great change in his family when he was young, and was luckily saved by Jian Chi's visit. Jian Chi was afraid that he still had demons in his heart and would fall into the evil way if he sought revenge, so he only taught him the method of sword casting, but Ouye Heng was quite talented and realized swordsmanship in the method of sword casting.</t>
   </si>
   <si>
     <t>CharacterInfo_韩红玉</t>
   </si>
   <si>
-    <t>虎威镖局的现任总镖头，性格泼辣直爽，自小就喜欢舞刀弄枪，不喜欢女红家务。在前总镖头失踪后接手管理了虎威镖局，尽管虎威镖局日渐衰败，也仍苦苦支撑。</t>
-  </si>
-  <si>
-    <t>虎威鏢局的現任總鏢頭，性格潑辣直爽，自小就喜歡舞刀弄槍，不喜歡女紅家務。在前總鏢頭失蹤後接手管理了虎威鏢局，儘管虎威鏢局日漸衰敗，也仍苦苦支撐。</t>
-  </si>
-  <si>
-    <t>The current head of Tiger Escort, who is bold and straightforward, has loved playing with swords and guns since she was a child and dislikes housework. She took over the management of Tiger Escort after the previous head disappeared. Despite the decline of Tiger Escort, she still struggles to keep it going.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虎威镖局的现任总镖头，性格泼辣直爽，自小就喜欢舞刀弄枪，不喜欢女红家务。在前总镖头失踪后接手管理了虎威镖局，尽管虎威镖局日渐衰败，仍勉力支撑。</t>
+    </r>
+  </si>
+  <si>
+    <t>虎威鏢局的現任總鏢頭，性格潑辣直爽，自小就喜歡舞刀弄槍，不喜歡女紅家務。在前總鏢頭失蹤後接手管理了虎威鏢局，儘管虎威鏢局日漸衰敗，仍勉力支撐。</t>
+  </si>
+  <si>
+    <t>The current head of Tiger Escort, she is bold and straightforward. She has loved weapons since she was a child and dislikes housework. She took over the management of Tiger Escort after the previous head disappeared. Despite the decline of Tiger Escort, she still strives to keep it going.</t>
   </si>
   <si>
     <t>CharacterInfo_独孤剑一</t>
@@ -761,19 +791,19 @@
     <t>蚍蜉城的副城主，柳生武藏的師弟和得力助手，和柳生武藏不同，服部兵衛做事雷厲風行，頗有野心，認為東瀛的劍術遠勝中原的武功，想要和世人證明這一點。</t>
   </si>
   <si>
-    <t>The deputy lord of Dragonfly City, Liu Sheng Wucang's junior brother and capable assistant, unlike Liu Sheng Wucang, Fu Bu Bingwei is decisive and ambitious, believing that Japanese swordsmanship is far superior to Central Plains martial arts, and wants to prove this to the world.</t>
+    <t>The deputy lord of Dragonfly City, Yagyū Musashi's junior brother and capable assistant, unlike Yagyū Musashi, Hattori Hyoe is decisive and ambitious, believing that Japanese swordsmanship is far superior to Central Plains martial arts, and wants to prove this to the world.</t>
   </si>
   <si>
     <t>CharacterInfo_月咏樱羽</t>
   </si>
   <si>
-    <t>柳生武藏的义女，被服部兵卫当做棋子使用，安插在中原替蚍蜉城刺探情报。但月咏樱羽不甘于沦为棋子，心地良善的她更倾慕中原人的生活方式，想要像一个普通人一样生活。</t>
-  </si>
-  <si>
-    <t>柳生武藏的義女，被服部兵衛當做棋子使用，安插在中原替蚍蜉城刺探情報。但月詠櫻羽不甘於淪為棋子，心地良善的她更傾慕中原人的生活方式，想要像一個普通人一樣生活。</t>
-  </si>
-  <si>
-    <t>Liu Sheng Wucang's adopted daughter, used by Fu Bu Bingwei as a pawn, was planted in Central Plains to spy for Dragonfly City. But Yue Yong Yingyu is not willing to be a pawn, the kind-hearted her prefers the lifestyle of Central Plains people and wants to live like an ordinary person.</t>
+    <t>柳生武藏的义女，在中原行动，为蚍蜉城收集情报和人力。是个美丽但同样心狠手辣的角色。</t>
+  </si>
+  <si>
+    <t>柳生武藏的義女，在中原行動，為蚍蜉城收集情報和人力。是個美麗但同樣心狠手辣的角色。</t>
+  </si>
+  <si>
+    <t>The adopted daughter of Yagyū Musashi, she operates in the Central Plains, collecting information and manpower for Dragonfly City. She is a beautiful but ruthless character.</t>
   </si>
   <si>
     <t>CharacterInfo_孔一刀</t>
@@ -815,27 +845,53 @@
     <t>CharacterInfo_说书人</t>
   </si>
   <si>
-    <t>神秘的书生，自称风闻台的传人，不参与江湖纷争，只是从旁记录江湖中发生的每一件事，平生夙愿是有朝一日能为一名大侠树碑立传，见证他的一生。</t>
-  </si>
-  <si>
-    <t>神秘的書生，自稱風聞臺的傳人，不參與江湖紛爭，只是從旁記錄江湖中發生的每一件事，平生夙願是有朝一日能為一名大俠樹碑立傳，見證他的一生。</t>
-  </si>
-  <si>
-    <t>A mysterious scholar, claiming to be a descendant of the Wind Hearing Platform, does not participate in the disputes of the martial arts world, but records every event that happens in it. His lifelong wish is to one day write a biography for a hero, witnessing his life.</t>
+    <t>略通武艺的江湖说书人，平生夙愿是有朝一日能为一名大侠著书立传，见证他的传奇一生。</t>
+  </si>
+  <si>
+    <t>略通武藝的江湖說書人，平生夙願是有朝一日能為一名大俠著書立傳，見證他的傳奇一生。</t>
+  </si>
+  <si>
+    <t>A martial artist of the Jianghu, his lifelong wish is to write a biography for a hero, witnessing his legendary life.</t>
   </si>
   <si>
     <t>CharacterInfo_沈无欺</t>
   </si>
   <si>
-    <t xml:space="preserve">创办经营夜摩坊的商人，精明市侩斤斤计较。
-本人因患有离魂症导致记性极差，甚至刚发生的事情就转头可能就会忘记，让人难以想象他如何经营至今。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">創辦經營夜摩坊的商人，精明市儈斤斤計較。
-本人因患有離魂症導致記性極差，甚至剛發生的事情就轉頭可能就會忘記，讓人難以想象他如何經營至今。</t>
-  </si>
-  <si>
-    <t>The businessman who founded and operates Night Demon Square, shrewd and economical. He suffers from a condition that causes severe memory loss, even forgetting things that just happened, making it hard to imagine how he has managed to run his business till now.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜摩坊主人，交游广阔，喜好收集天下奇珍。</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身患离魂奇症，近些年来记性越来越差。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">夜摩坊主人，交遊廣闊，喜好收集天下奇珍。
+身患離魂奇症，近些年來記性越來越差。</t>
+  </si>
+  <si>
+    <t>The owner of Night Auction Market, he is resourceful and likes to collect rare treasures from all over the world. He suffers from a strange disease that is causing his memory to deteriorate.</t>
   </si>
   <si>
     <t>CharacterInfo_楚狂生</t>
@@ -853,37 +909,61 @@
     <t>CharacterInfo_绛紫烟</t>
   </si>
   <si>
-    <t>无门无派的女道姑，擅长用毒之术。因为偷了九黎部落的宝贝而被追杀。</t>
-  </si>
-  <si>
-    <t>無門無派的女道姑，擅長用毒之術。因為偷了九黎部落的寶貝而被追殺。</t>
-  </si>
-  <si>
-    <t>A sectless female Taoist who is skilled in the art of poison. She is being hunted for stealing a treasure from the Jiuli Tribe.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无门无派的女道姑，性格孤高冷傲，擅长使毒。因身怀异宝，引起九黎部落觊觎。</t>
+    </r>
+  </si>
+  <si>
+    <t>無門無派的女道姑，性格孤高冷傲，擅長使毒。因身懷異寶，引起九黎部落覬覦。</t>
+  </si>
+  <si>
+    <t>A female Taoist with no sect, she is aloof and excels in using poison. She possesses a rare treasure, which has attracted the covetousness of the Jiuli Tribe.</t>
   </si>
   <si>
     <t>CharacterInfo_牛二</t>
   </si>
   <si>
-    <t>吕子虚手下打手，原本就是楚襄城内一个泼皮无赖，和李三一起恐吓商家以收取保护费。吕子虚来到楚襄城后成为了他的新靠山，他的行事作风也变得更加大胆肆意。</t>
-  </si>
-  <si>
-    <t>呂子虛手下打手，原本就是楚襄城內一個潑皮無賴，和李三一起恐嚇商家以收取保護費。呂子虛來到楚襄城後成為了他的新靠山，他的行事作風也變得更加大膽肆意。</t>
-  </si>
-  <si>
-    <t>A thug under Lü Zixu, originally a ruffian in Chuxiang City, who together with Li San intimidates businesses to collect protection fees. After Lü Zixu came to Chuxiang City, he became his new backer, and his actions became even more bold and reckless.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楚襄城内的泼皮无赖，跟在吕子虚身边狐假虎威，充当其打手。</t>
+    </r>
+  </si>
+  <si>
+    <t>楚襄城內的潑皮無賴，跟在呂子虛身邊狐假虎威，充當其打手。</t>
+  </si>
+  <si>
+    <t>A ruffian in Chuxiang City, he is a dependant of Lü Zixu and acts as his thug.</t>
   </si>
   <si>
     <t>CharacterInfo_李三</t>
   </si>
   <si>
-    <t>吕子虚手下帮闲，原本就是楚襄城内一个宵小之徒，一肚子坏水，和牛二一起为非作歹。吕子虚来到楚襄城后成为了他的新靠山，各种阴损主意更胜从前。</t>
-  </si>
-  <si>
-    <t>呂子虛手下幫閒，原本就是楚襄城內一個宵小之徒，一肚子壞水，和牛二一起為非作歹。呂子虛來到楚襄城後成為了他的新靠山，各種陰損主意更勝從前。</t>
-  </si>
-  <si>
-    <t>A henchman under Lü Zixu, originally a petty thief in Chuxiang City, full of bad ideas, and together with Niu Er, they commit crimes. After Lü Zixu came to Chuxiang City, he became his new backer, and his sinister ideas became even more prominent than before.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楚襄城内的泼皮无赖，跟在吕子虚身边狐假虎威，为其出谋划策。</t>
+    </r>
+  </si>
+  <si>
+    <t>楚襄城內的潑皮無賴，跟在呂子虛身邊狐假虎威，為其出謀劃策。</t>
+  </si>
+  <si>
+    <t>A ruffian in Chuxiang City, he is a dependant of Lü Zixu and provides him with strategies.</t>
   </si>
   <si>
     <t>CharacterInfo_江南怪</t>
@@ -915,15 +995,15 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>外表邋遢，行事乖张，为人风趣幽默，从不按常理出牌。暗中有四通八达的情报网络，自身也是多方情报的提供者，只不过提供的情报却常常真假掺半，让人哭笑不得。</t>
+      <t>外表邋遢，行事乖张，为人风趣幽默，从不按常理出牌。</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">楚襄城髒街內的怪老頭，是髒街的掌控者。
-外表邋遢，行事乖張，為人風趣幽默，從不按常理出牌。暗中有四通八達的情報網絡，自身也是多方情報的提供者，只不過提供的情報卻常常真假摻半，讓人哭笑不得。</t>
-  </si>
-  <si>
-    <t>A strange old man in the Dirty Street of Chuxiang City, who controls the Dirty Street. He looks sloppy, acts eccentrically, is humorous, and never plays by the rules. He has a wide-ranging intelligence network and is a provider of information from various sources, but the information he provides is often a mix of truth and falsehood, which is both amusing and annoying.</t>
+外表邋遢，行事乖張，為人風趣幽默，從不按常理出牌。</t>
+  </si>
+  <si>
+    <t>A strange old man in the Dirty Street of Chuxiang City, he controls the Dirty Street. He is unkempt, eccentric, humorous, and never plays by the rules.</t>
   </si>
   <si>
     <t>CharacterInfo_廖月龙</t>
@@ -978,18 +1058,6 @@
     <t>A humorous man trapped in prison, who has loved music since he was a child. He went to Melody House to steal sheet music, and was mistakenly identified as the culprit who burned down the attic, and was therefore hunted. In order to save his life, he deliberately went to jail.</t>
   </si>
   <si>
-    <t>CharacterInfo_时文修</t>
-  </si>
-  <si>
-    <t>冷言寡语的行侠，自称是苦行僧人。过着随遇而安，四海为家的生活。</t>
-  </si>
-  <si>
-    <t>冷言寡語的行俠，自稱是苦行僧人。過著隨遇而安，四海為家的生活。</t>
-  </si>
-  <si>
-    <t>A reticent chivalrous man, who claims to be an ascetic monk. He leads a life of contentment, considering the whole world as his home.</t>
-  </si>
-  <si>
     <t>CharacterInfo_石万三</t>
   </si>
   <si>
@@ -999,19 +1067,27 @@
     <t>珠光寶氣樓樓主，掌管天下所有當鋪生意。會定期召開拍賣會，拍賣一些難得一見的寶藏奇物。其人家纏萬貫、富可敵國，堪稱天下最富有的人。</t>
   </si>
   <si>
-    <t>The owner of Glittering Artifact House, who controls all pawnshop businesses in the world. He regularly holds auctions, auctioning off some rare treasures and curiosities. He is extremely wealthy, rich enough to rival a country, and is considered the richest man in the world.</t>
+    <t>The owner of the Glittering Artifact Auction oversees all pawnshop businesses in the world. He regularly holds auctions consisting of extraordinary treasures. His wealth is immense, rivaling that of a nation, making him arguably the richest person in the world.</t>
   </si>
   <si>
     <t>CharacterInfo_曲忘忧</t>
   </si>
   <si>
-    <t>本草门的门主，医学方面天赋异禀，年纪轻轻便继承了本草门数百年的医学知识，并加以发扬光大，达到了医死人肉白骨的程度。</t>
-  </si>
-  <si>
-    <t>本草門的門主，醫學方面天賦異稟，年紀輕輕便繼承了本草門數百年的醫學知識，並加以發揚光大，達到了醫死人肉白骨的程度。</t>
-  </si>
-  <si>
-    <t>The head of the Plant Sect, who has an extraordinary talent in medicine. At a young age, he inherited hundreds of years of medical knowledge from the Plant Sect and further developed it, reaching the level of reviving the dead and healing the wounded.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本草门门主，医术深不可测，传闻已达到活死人肉白骨的程度。但是自身患有怪病，无法暴露与阳光之下，尽管自身医术过人，却无法自医。</t>
+    </r>
+  </si>
+  <si>
+    <t>本草門門主，醫術深不可測，傳聞已達到活死人肉白骨的程度。但是自身患有怪病，無法暴露與陽光之下，儘管自身醫術過人，卻無法自醫。</t>
+  </si>
+  <si>
+    <t>The head of the Herbology Sect, his medical skills are unfathomable, rumored to be able to bring the dead back to life. However, he suffers from a strange disease that prevents him from being exposed to sunlight. Despite his extraordinary medical skills, he cannot cure himself.</t>
   </si>
   <si>
     <t>CharacterInfo_柳本草</t>
@@ -1023,7 +1099,7 @@
     <t>本草門內為數不多的精英弟子，在本草門遭遇變故之後，被曲忘憂遣散，進入江湖中用醫術討生活。</t>
   </si>
   <si>
-    <t>One of the few elite disciples in the Plant Sect. After the Plant Sect encountered a change, he was dismissed by Qu Wangyou and entered the martial arts world to make a living with medicine.</t>
+    <t>One of the few elite disciples in the Herbology Sect. After the Herbology Sect encountered a change, he was dismissed by Qu Wangyou and entered the martial arts world to make a living with medicine.</t>
   </si>
   <si>
     <t>CharacterInfo_吕文桓</t>
@@ -1041,13 +1117,21 @@
     <t>CharacterInfo_吕子虚</t>
   </si>
   <si>
-    <t>楚襄城指挥使吕文桓的独生子，从小受到父亲的溺爱，来到楚襄城后仗着父亲的权势在城里嚣张跋扈、作威作福，到处惹是生非，没少给吕文桓惹麻烦。但即便如此，吕文桓仍旧对他过分溺爱。</t>
-  </si>
-  <si>
-    <t>楚襄城指揮使呂文桓的獨生子，從小受到父親的溺愛，來到楚襄城後仗著父親的權勢在城裡囂張跋扈、作威作福，到處惹是生非，沒少給呂文桓惹麻煩。但即便如此，呂文桓仍舊對他過分溺愛。</t>
-  </si>
-  <si>
-    <t>The only son of Chuxiang City's commander Lü Wenhuan, who has been spoiled by his father since childhood. After coming to Chuxiang City, he relied on his father's power to act arrogantly and domineeringly, causing trouble everywhere, and has caused a lot of trouble for Lü Wenhuan. But even so, Lü Wenhuan still spoils him excessively.</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楚襄城吕文桓独子，在楚襄城嚣张跋扈、作威作福，百姓深受其害敢怒不敢言。</t>
+    </r>
+  </si>
+  <si>
+    <t>楚襄城呂文桓獨子，在楚襄城囂張跋扈、作威作福，百姓深受其害敢怒不敢言。</t>
+  </si>
+  <si>
+    <t>The only son of Lü Wenhuan in Chuxiang City, he is arrogant and domineering, causing much suffering to the people who dare not speak out.</t>
   </si>
   <si>
     <t>CharacterInfo_燕罗冲</t>
@@ -1056,7 +1140,7 @@
     <t>沉默寡言的杀手，自幼便加入皇城司，视佟道辅为自己生父，对自己的真实出身一无所知。</t>
   </si>
   <si>
-    <t>沉默寡言的殺手，自幼便加入皇城司，視佟道輔為自己生父，對自己的真實出身一無所知。</t>
+    <t>聖火宗四聖使之一的白虎使，負責替聖火宗暗殺敵人。實力高強，性格孤僻，和方嘯天有諸多衝突，因而離開聖火宗並在白靈山中隱居。似乎傾心鳳璇璣，對鳳璇璣唯命是從。</t>
   </si>
   <si>
     <t>A silent and taciturn assassin who joined the Imperial City Department since childhood, regards {Tong Daofu} as his biological father, and knows nothing about his real origin.</t>
@@ -1123,7 +1207,7 @@
     <t>康王的妹妹，從小被養在深宮，不見外面的世界。外表看似柔弱天真，卻有天生神力，一般的男子都難以近身。</t>
   </si>
   <si>
-    <t>{Kang Wang}'s sister, who has been raised in the palace since childhood and has not seen the outside world. She appears weak and innocent, but has Herculean strength, making it difficult for ordinary men to approach her.</t>
+    <t>{Duke Kang}'s sister, who has been raised in the palace since childhood and has not seen the outside world. She appears weak and innocent, but has Herculean strength, making it difficult for ordinary men to approach her.</t>
   </si>
   <si>
     <t>CharacterInfo_康王</t>
@@ -1135,362 +1219,707 @@
     <t>是趙國皇室年輕一輩中最傑出的人選，先代趙皇為了鍛鍊他而將他外放江南，但他自己卻認為父皇對自己不滿，從而心生憤恨。如今天下傾覆，卻也正是康王一展野心的時機！其野心極大，不僅想要統一天下，更要廟堂江湖奉其一人為尊。</t>
   </si>
   <si>
-    <t>He is the most outstanding candidate among the younger generation of the Zhao royal family. The previous Zhao Emperor sent him to Jiangnan to train him, but he himself believed that his father was dissatisfied with him, which led to resentment. Now that the world is in chaos, it is also the time for Kang Wang to show his ambition! His ambition is great, not only wanting to unify the world, but also wanting the temples and rivers and lakes to respect him alone.</t>
+    <t>He is the most outstanding candidate among the younger generation of the Zhao royal family. The previous Zhao Emperor sent him to Jiangnan to train him, but he himself believed that his father was dissatisfied with him, which led to resentment. Now that the world is in chaos, it is also the time for Duke Kang to show his ambition! His ambition is great, not only wanting to unify the world, but also wanting the temples and rivers and lakes to respect him alone.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_霍诗楼</t>
+  </si>
+  <si>
+    <t>冷皮帮帮主，雄踞大漠的霸主，以义字而闻名江湖，收拢了众多江湖好汉，是多方势力想要拉拢的角色。</t>
+  </si>
+  <si>
+    <t>冷皮幫幫主，雄踞大漠的霸主，以義字而聞名江湖，收攏了眾多江湖好漢，是多方勢力想要拉攏的角色。</t>
+  </si>
+  <si>
+    <t>The leader of the Cold Skin Gang, the overlord of the desert, known for his righteousness in the rivers and lakes, has gathered many heroes and is a character that many forces want to win over.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_付瑶琴</t>
+  </si>
+  <si>
+    <t>妙音坊的坊主，有沉鱼落雁之姿，平时在坊中教导弟子，深居简出，少见世人。性情高傲火爆，对天下男儿都抱有极大的敌意，甚至可以毫不犹豫痛下杀手。</t>
+  </si>
+  <si>
+    <t>妙音坊的坊主，有沉魚落雁之姿，平時在坊中教導弟子，深居簡出，少見世人。性情高傲火爆，對天下男兒都抱有極大的敵意，甚至可以毫不猶豫痛下殺手。</t>
+  </si>
+  <si>
+    <t>The master of Melody House, with an alluring beauty, usually teaches disciples in the house, lives a simple life, and rarely sees the world. She is proud and fiery, holds a great hostility towards all men in the world, and can even kill without hesitation.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_命不凡</t>
+  </si>
+  <si>
+    <t>摸金门门主，擅长识风水、寻古墓，凭借这手本事数次大发横财，成立摸金门后，和门下弟子立志搜罗天下所有的奇珍异宝。</t>
+  </si>
+  <si>
+    <t>摸金門門主，擅長識風水、尋古墓，憑藉這手本事數次大發橫財，成立摸金門後，和門下弟子立志蒐羅天下所有的奇珍異寶。</t>
+  </si>
+  <si>
+    <t>The head of the Tomb Raider Sect, adept at identifying Feng Shui and searching for ancient tombs. With these skills, he has made a fortune several times and established the Tomb Raider Sect. He and his disciples are committed to collecting all the rare treasures in the world.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_齐王</t>
+  </si>
+  <si>
+    <t>康王同父异母的哥哥，大梁城破后，由燕国扶植上台，担任监国，表面风光却处处要听命于燕国。愤懑的他只能倾情于字画文玩之中，鲜少过问政事，暗中使儒圣馆替自己积蓄力量，培植党羽。</t>
+  </si>
+  <si>
+    <t>康王同父異母的哥哥，大梁城破後，由燕國扶植上臺，擔任監國，表面風光卻處處要聽命於燕國。憤懣的他只能傾情於字畫文玩之中，鮮少過問政事，暗中使儒聖館替自己積蓄力量，培植黨羽。</t>
+  </si>
+  <si>
+    <t>Duke Kang's half-brother from the same father. After the fall of Daliang City, he was supported by the Yan Kingdom to take the throne as the regent. Despite his apparent glory, he had to obey the Yan Kingdom in everything. Frustrated, he could only indulge in calligraphy and painting, rarely involving himself in politics. He secretly had the Confucius Temple accumulate power for him and cultivate his followers.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_裘之墨</t>
+  </si>
+  <si>
+    <t>神捕门洛天雄的义弟，本领高强不逊于洛天雄，却淡泊名利，甘心辅佐洛天雄。正义感极强，行事以正义为作风，对一切邪恶都不留情面，下手铲除，让恶人们闻风丧胆，夜不能寐。</t>
+  </si>
+  <si>
+    <t>神捕門洛天雄的義弟，本領高強不遜於洛天雄，卻淡泊名利，甘心輔佐洛天雄。正義感極強，行事以正義為作風，對一切邪惡都不留情面，下手剷除，讓惡人們聞風喪膽，夜不能寐。</t>
+  </si>
+  <si>
+    <t>The sworn brother of Luo Tianxiong from the Crime Investigation Bureau. He is as skilled as Luo Tianxiong, but indifferent to fame and wealth, willingly assisting Luo Tianxiong. He has a strong sense of justice, acts with righteousness, shows no mercy to all evil, and eradicates it, making evildoers terrified and sleepless.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_书狂</t>
+  </si>
+  <si>
+    <t>儒圣馆四贤人之一，从小饱读诗书，练习书法，久而久之竟从古诗词和书法中悟出一套武功。和画痴关系匪浅，情同手足。</t>
+  </si>
+  <si>
+    <t>儒聖館四賢人之一，從小飽讀詩書，練習書法，久而久之竟從古詩詞和書法中悟出一套武功。和畫痴關係匪淺，情同手足。</t>
+  </si>
+  <si>
+    <t>One of the four sages of the Confucius Temple. He has been reading poetry and practicing calligraphy since he was a child. Over time, he has realized a set of martial arts from ancient poetry and calligraphy. He has a deep relationship with Hua Chi, like brothers.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_画痴</t>
+  </si>
+  <si>
+    <t>儒圣馆四贤人之一，痴迷于画画，经常话说到一半就随手拿起一样物品就开始作画，对其他的事情从不放在心上。和书狂关系匪浅，但对书狂会在不经自己允许的情况下在自己的画作上题字这件事十分头疼。</t>
+  </si>
+  <si>
+    <t>儒聖館四賢人之一，痴迷於畫畫，經常話說到一半就隨手拿起一樣物品就開始作畫，對其他的事情從不放在心上。和書狂關係匪淺，但對書狂會在不經自己允許的情況下在自己的畫作上題字這件事十分頭疼。</t>
+  </si>
+  <si>
+    <t>One of the four sages of the Confucius Temple, obsessed with painting. He often starts painting with any item at hand in the middle of a conversation, never caring about other things. He has a deep relationship with Shu Kuang, but is very bothered by Shu Kuang writing on his paintings without his permission.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_哑琴</t>
+  </si>
+  <si>
+    <t>儒圣馆四贤人之一，脾气暴躁，有口不言。终日和琴声为伴，从不和人亲近，即便是儒圣馆的人也对她的事情知之甚少。</t>
+  </si>
+  <si>
+    <t>儒聖館四賢人之一，脾氣暴躁，有口不言。終日和琴聲為伴，從不和人親近，即便是儒聖館的人也對她的事情知之甚少。</t>
+  </si>
+  <si>
+    <t>One of the four sages of the Confucius Temple, she is hot-tempered and silent. She spends her days with the sound of the zither, never getting close to people. Even the people of the Confucius Temple know very little about her.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_霸南天</t>
+  </si>
+  <si>
+    <t>沙门岛岛主，十恶不赦的罪犯，被判流放沙门岛，却反过来杀害了看守的将士，成为了沙门岛上土皇帝一样的存在，对新流放来的囚犯有生杀大权。</t>
+  </si>
+  <si>
+    <t>沙門島島主，十惡不赦的罪犯，被判流放沙門島，卻反過來殺害了看守的將士，成為了沙門島上土皇帝一樣的存在，對新流放來的囚犯有生殺大權。</t>
+  </si>
+  <si>
+    <t>The island owner of Shamen Island, a heinous criminal who was sentenced to exile on Shamen Island. However, he turned the tables by killing the guards and became a king-like figure on Shamen Island, having the power of life and death over newly exiled prisoners.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_洛天雄</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神捕门掌门，天下第一名捕。面对罪犯强硬且执拗，不问天下政权，也不关心江湖事，一心只为心中理想，天下无恶徒！</t>
+    </r>
+  </si>
+  <si>
+    <t>神捕門掌門，天下第一名捕。面對罪犯強硬且執拗，不問天下政權，也不關心江湖事，一心只為心中理想，天下無惡徒！</t>
+  </si>
+  <si>
+    <t>The head of the Crime Investigation Bureau, a famous detective at the peak of Jianghu. He is tough and stubborn when dealing with criminals, not caring about politics or Jianghu affairs, only focusing on his ideal of a world without villains.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_洛千雪</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神捕门弟子，洛天雄的亲妹妹，从小就视哥哥为偶像，想要有朝一日成为和哥哥一样的名捕。</t>
+    </r>
+  </si>
+  <si>
+    <t>神捕門弟子，洛天雄的親妹妹，從小就視哥哥為偶像，想要有朝一日成為和哥哥一樣的名捕。</t>
+  </si>
+  <si>
+    <t>A disciple of the Crime Investigation Bureau, the younger sister of Luo Tianxiong. She has idolized her brother since childhood and hopes to become a famous detective like him one day.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_陆剑南</t>
+  </si>
+  <si>
+    <t>万兽山庄的少庄主，唐太君的亲生儿子，但是却对接管山庄没有任何兴趣，反而是喜欢游山玩水，甚至因此偷偷溜出山庄，和自己的爱宠一起游山玩水。</t>
+  </si>
+  <si>
+    <t>萬獸山莊的少莊主，唐太君的親生兒子，但是卻對接管山莊沒有任何興趣，反而是喜歡遊山玩水，甚至因此偷偷溜出山莊，和自己的愛寵一起遊山玩水。</t>
+  </si>
+  <si>
+    <t>The young master of Beast Manor, the biological son of Tang Tai Jun, but he has no interest in taking over the manor. Instead, he likes to travel and play in the mountains and waters. He even sneaks out of the manor to travel and play with his beloved pet.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_唐太君</t>
+  </si>
+  <si>
+    <t>万兽山庄庄主，传说中的“八圣”之一。楚襄城一战后遵守约定守卫西南，牵制九黎部落，让九黎之人不敢踏足中原。但随着大梁陷落赵皇被掳，唐太君自感年事已高，想要退居幕后，让年轻人接手山庄。</t>
+  </si>
+  <si>
+    <t>萬獸山莊莊主，傳說中的“八聖”之一。楚襄城一戰後遵守約定守衛西南，牽制九黎部落，讓九黎之人不敢踏足中原。但隨著大梁陷落趙皇被擄，唐太君自感年事已高，想要退居幕後，讓年輕人接手山莊。</t>
+  </si>
+  <si>
+    <t>The master of Beast Manor, one of the legendary "Eight Saints". After the battle of Chuxiang City, he kept his promise to guard the southwest, restraining the Jiuli Tribe, so that the people of Jiuli dare not set foot in the Central Plains. But with the fall of Daliang and the capture of Emperor Zhao, Tang Tai Jun feels that he is getting old and wants to retire behind the scenes and let the young people take over the manor.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_唐婉儿</t>
+  </si>
+  <si>
+    <t>万兽山庄唐太君的侄女，陆剑南的表妹，和陆剑南自幼便有婚约。陆剑南偷离万兽山庄后，一直在帮唐太君处理万兽山庄的事务。平时温婉可爱，但有时也会显露出和平时截然相反，颇有压迫力的一面。</t>
+  </si>
+  <si>
+    <t>萬獸山莊唐太君的侄女，陸劍南的表妹，和陸劍南自幼便有婚約。陸劍南偷離萬獸山莊後，一直在幫唐太君處理萬獸山莊的事務。平時溫婉可愛，但有時也會顯露出和平時截然相反，頗有壓迫力的一面。</t>
+  </si>
+  <si>
+    <t>The niece of Beast Manor's Tang Tai Jun, the cousin of Lu Jian Nan, and has been engaged to Lu Jian Nan since childhood. After Lu Jian Nan sneaked away from Beast Manor, she has been helping Tang Tai Jun handle the affairs of Beast Manor. She is usually gentle and cute, but sometimes she shows a completely opposite side, quite oppressive.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_方小白</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心比天高的店小二，对江湖心生向往，希望自己有朝一日也能成为大侠行走江湖。</t>
+    </r>
+  </si>
+  <si>
+    <t>心比天高的店小二，對江湖心生嚮往，希望自己有朝一日也能成為大俠行走江湖。</t>
+  </si>
+  <si>
+    <t>An ambitious waiter who yearns for the Jianghu, hoping to become a hero one day.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_杨幺儿</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看似普通兵丁，其实是杨家的后人，在杨家被迫害后过了十几年东躲西藏的生活，最近才重归安稳。为重振杨家英名，他毅然入伍，期待有朝一日成为父辈那样威震天下的大将军。</t>
+    </r>
+  </si>
+  <si>
+    <t>看似普通兵丁，其實是楊家的後人，在楊家被迫害後過了十幾年東躲西藏的生活，最近才重歸安穩。為重振楊家英名，他毅然入伍，期待有朝一日成為父輩那樣威震天下的大將軍。</t>
+  </si>
+  <si>
+    <t>Seemingly an ordinary soldier, he is actually a descendant of the Yang family. After the Yang family was persecuted, he lived a life of hiding for more than a decade, and only recently returned to a peaceful life. In order to restore the glory of the Yang family, he resolutely joined the army, hoping to become a great general who shakes the world like his father one day.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_半瓶神仙醋</t>
+  </si>
+  <si>
+    <t>江湖上最为神秘的侠客，没有人知道他来自何处，但江湖上处处都有他的传说。</t>
+  </si>
+  <si>
+    <t>江湖上最為神秘的俠客，沒有人知道他來自何處，但江湖上處處都有他的傳說。</t>
+  </si>
+  <si>
+    <t>The most mysterious knight in the martial arts world, no one knows where he comes from, but there are legends about him everywhere in the martial arts world.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村猎户</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无名小村的猎户，打猎技术高超。昔日是守卫楚襄城的杨将军部下，杨家军解散后逃到无名小村躲避，从此隐姓埋名，以打猎为生。</t>
+    </r>
+  </si>
+  <si>
+    <t>無名小村的獵戶，打獵技術高超。昔日是守衛楚襄城的楊將軍部下，楊家軍解散後逃到無名小村躲避，從此隱姓埋名，以打獵為生。</t>
+  </si>
+  <si>
+    <t>A hunter from Nameless village with superb hunting skills. He used to be a subordinate of General Yang who defended Chuxiang City. After the Yang army was disbanded, he fled to Nameless village to hide, and since then he has been living incognito, making a living by hunting.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村铁匠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无名小村的铁匠，力大如牛，有一手顶尖的打铁技巧。
+原先是琅琊剑阁大弟子，年轻时人称“玉面干将”，但是现在完全看不出来。因为某些事情离开剑阁，来到无名小村隐姓埋名。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無名小村的鐵匠，力大如牛，有一手頂尖的打鐵技巧。
+原先是琅琊劍閣大弟子，年輕時人稱“玉面干將”，但是現在完全看不出來。因為某些事情離開劍閣，來到無名小村隱姓埋名。</t>
+  </si>
+  <si>
+    <t>The blacksmith of the Nameless Village, he is as strong as an ox and has top-notch blacksmithing skills. He was once the top disciple of the Langya Sword Pavilion, known as the "Jade-faced Ganjiang" in his youth, but now it's hard to tell. He ran away from the Sword Pavilion due to certain events and has been living incognito in the Nameless Village.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村郎中</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年少时一心钻研学医，本想医术大成后救济天下人，奈何天赋不够，蹉跎半生仍旧只知皮毛，只能沦为乡里郎中，治一些风寒小病糊口。</t>
+    </r>
+  </si>
+  <si>
+    <t>年少時一心鑽研學醫，本想醫術大成後救濟天下人，奈何天賦不夠，蹉跎半生仍舊只知皮毛，只能淪為鄉里郎中，治一些風寒小病餬口。</t>
+  </si>
+  <si>
+    <t>When he was young, he devoted himself to studying medicine, hoping to save the world after becoming a great doctor. However, due to his lack of talent, he only knew the basics after wasting half of his life, and could only become a country doctor, treating some minor illnesses to make ends meet.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村老板娘</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无名客栈的老板娘，有一手好厨艺，性格泼辣、刚柔并济。一个人苦苦经营无名客栈，据包打听说追她的人能排到无名小村村口，却不见有得她芳心的。</t>
+    </r>
+  </si>
+  <si>
+    <t>無名客棧的老闆娘，有一手好廚藝，性格潑辣、剛柔並濟。一個人苦苦經營無名客棧，據包打聽說追她的人能排到無名小村村口，卻不見有得她芳心的。</t>
+  </si>
+  <si>
+    <t>The proprietress of Nameless Inn, with excellent cooking skills, a fiery and flexible character. She runs Nameless Inn alone. According to Bao Dating, the people who pursued her could line up to the entrance of Nameless village, but no one could win her heart.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村包打听</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无名小村里游手好闲的年轻人，平日里到处打听八卦，靠着打听到的小道消息和人换点小钱为生。</t>
+    </r>
+  </si>
+  <si>
+    <t>無名小村裏遊手好閒的年輕人，平日裏到處打聽八卦，靠著打聽到的小道消息和人換點小錢為生。</t>
+  </si>
+  <si>
+    <t>A young man in Nameless village who is idle all day, usually inquiring about gossip everywhere, making a living by exchanging the gossip he heard for some small money.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_华青青</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燕子窝的女弟子，资质平庸不被人重视，总想证明自己的能力，结果却是事与愿违。颇得步绝尘疼爱，因此众人对她礼让三分。</t>
+    </r>
+  </si>
+  <si>
+    <t>燕子窩的女弟子，資質平庸不被人重視，總想證明自己的能力，結果卻是事與願違。頗得步絕塵疼愛，因此眾人對她禮讓三分。</t>
+  </si>
+  <si>
+    <t>A female disciple of the Swallow Nest, she is not highly regarded due to her mediocre talent. She always wants to prove her skills, but things often go against her wishes. She is greatly loved by Bu Juechen, so everyone gives her some respect.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_一枝花</t>
+  </si>
+  <si>
+    <t>长乐柜坊的掌柜，有一手高超的赌技。性情豪放，哪怕是男性豪侠也不遑多让，江湖人称“花姐”。其真实身份是暗杀组织——玄衣会的会首，是个深藏不露的狠角色。</t>
+  </si>
+  <si>
+    <t>長樂櫃坊的掌櫃，有一手高超的賭技。性情豪放，哪怕是男性豪俠也不遑多讓，江湖人稱“花姐”。其真實身份是暗殺組織——玄衣會的會首，是個深藏不露的狠角色。</t>
+  </si>
+  <si>
+    <t>The owner of Zhangyue Casino, with superb gambling skills. She is bold and generous, even the male heroes are not her match, known as "Sister Hua" in the martial arts world. Her real identity is the leader of the assassination organization - Black Robe Group, a mysterious and ruthless character.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_鱼薇儿</t>
+  </si>
+  <si>
+    <t>被妙音坊坊主付瑶琴收养的孤儿，付瑶琴对她爱如己出、关怀得无微不至。鱼薇儿在妙音坊中无忧无虑地成长，从未知晓人心的险恶。</t>
+  </si>
+  <si>
+    <t>被妙音坊坊主付瑤琴收養的孤兒，付瑤琴對她愛如己出、關懷得無微不至。魚薇兒在妙音坊中無憂無慮地成長，從未知曉人心的險惡。</t>
+  </si>
+  <si>
+    <t>An orphan adopted by the master of Melody House, Fu Yaoqin, who loves her as her own and takes care of her meticulously. Yu Weier grows up carefree in Melody House, never knowing the evil of human nature.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_燕歌行</t>
+  </si>
+  <si>
+    <t>在无名小村拜的师父，原本以为只是个不正经的老头，真实身份是老魔头楚狂生的师弟、九流门的真正成立者。因被仇家暗算导致武功尽失，经脉尽毁。如今已经治愈旧伤、功力恢复，准备去完成自己的毕生心愿。</t>
+  </si>
+  <si>
+    <t>在無名小村拜的師父，原本以為只是個不正經的老頭，真實身份是老魔頭楚狂生的師弟、九流門的真正成立者。因被仇家暗算導致武功盡失，經脈盡毀。如今已經治癒舊傷、功力恢復，準備去完成自己的畢生心願。</t>
+  </si>
+  <si>
+    <t>The master who was worshipped in Nameless village, originally thought to be just an unserious old man, his real identity is the younger brother of Lao Motou Chu Kuangsheng, the real founder of Nine Factions Sect. Due to being ambushed by enemies, he lost all his martial arts and his meridians were destroyed. Now he has healed his old injuries and recovered his strength, ready to fulfill his lifelong wish.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_霖安群芳馆馆主</t>
+  </si>
+  <si>
+    <t>出身世家，精通琴棋书画，但家中遭遇变故而沦为贱籍，几经波折被康王看中，因而成为群芳馆的馆主。虽然自称年老色衰，但却仍有绝代风华。</t>
+  </si>
+  <si>
+    <t>出身世家，精通琴棋書畫，但家中遭遇變故而淪為賤籍，幾經波折被康王看中，因而成為群芳館的館主。雖然自稱年老色衰，但卻仍有絕代風華。</t>
+  </si>
+  <si>
+    <t>Born into a noble family, proficient in the Four Arts, but fell into a low status due to family changes. After many twists and turns, she was appreciated by Duke Kang and became the owner of the Maiden House. Although she claims to be old and faded, she still has peerless elegance.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_鹰兄</t>
+  </si>
+  <si>
+    <t>居住在白灵山山顶的怪人，总是把自己打扮成神鹰模样。视保护动物为己任，但背后却有一颗向往闯荡江湖的心。</t>
+  </si>
+  <si>
+    <t>居住在白靈山山頂的怪人，總是把自己打扮成神鷹模樣。視保護動物為己任，但背後卻有一顆嚮往闖蕩江湖的心。</t>
+  </si>
+  <si>
+    <t>The eccentric living on top of Bailing Mountain, always dressing up as the Divine Hawk. He sees protecting animals as his duty, but deep down, he yearns for the life of a wanderer.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_凤璇玑</t>
+  </si>
+  <si>
+    <t>圣火宗四圣使之一的朱雀使，负责打探情报。早年被方啸天抓作侍女处理杂事，后来得到方啸天的赏识，调教成为得力干将。凤璇玑一方面感谢方啸天的培养，但也仇恨方啸天害得她家破人亡。</t>
+  </si>
+  <si>
+    <t>聖火宗四聖使之一的朱雀使，負責打探情報。早年被方嘯天抓作侍女處理雜事，後來得到方嘯天的賞識，調教成為得力干將。鳳璇璣一方面感謝方嘯天的培養，但也仇恨方嘯天害得她家破人亡。</t>
+  </si>
+  <si>
+    <t>One of the four holy envoys of the Holy Fire Sect, the Suzaku Envoy, is responsible for gathering intelligence. She was captured by Fang Xiaoian to be a maid in her early years, and later became a capable Ganjiang under Fang Xiaoian's training. Feng Xuanji is grateful for Fang Xiaoian's cultivation, but also hates Fang Xiaoian for ruining her family.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_何德诺</t>
+  </si>
+  <si>
+    <t>冷皮帮四当家，使用血玲珑辅助修炼火蟾诀，却也因此火毒入体，导致容貌半毁，每日都需要忍受血肉灼烧的痛苦。</t>
+  </si>
+  <si>
+    <t>冷皮幫四當家，使用血玲瓏輔助修煉火蟾訣，卻也因此火毒入體，導致容貌半毀，每日都需要忍受血肉灼燒的痛苦。</t>
+  </si>
+  <si>
+    <t>The fourth master of the Cold Skin Gang, who uses the Blood Jewel to assist in learning the Flame Toad Technique, but as a result, the fire poison enters his body, causing half of his face to be ruined, and he has to endure the pain of burning flesh and blood every day.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_海棠秋</t>
+  </si>
+  <si>
+    <t>长安客栈的老板娘，是老掌柜的养女，老掌柜过世后就继承了长安客栈。虽然年纪轻轻却有八面玲珑的本事，能在西域各方势力之间游走。</t>
+  </si>
+  <si>
+    <t>長安客棧的老闆娘，是老掌櫃的養女，老掌櫃過世後就繼承了長安客棧。雖然年紀輕輕卻有八面玲瓏的本事，能在西域各方勢力之間遊走。</t>
+  </si>
+  <si>
+    <t>The landlady of Chang'an Inn, adopted daughter of the old Innkeeper, inherited Chang'an Inn after the old Innkeeper passed away. Despite her young age, she has the ability of a Smooth Operator, able to navigate between various forces in the Western Regions.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_任中横</t>
+  </si>
+  <si>
+    <t>圣火宗四圣使之一的玄武使，性格冲动暴躁，做事霸道蛮不讲理，对圣火宗忠心不二，十分瞧不起和圣火宗对立的冷皮帮。</t>
+  </si>
+  <si>
+    <t>聖火宗四聖使之一的玄武使，性格衝動暴躁，做事霸道蠻不講理，對聖火宗忠心不二，十分瞧不起和聖火宗對立的冷皮幫。</t>
+  </si>
+  <si>
+    <t>One of the four holy envoys of the Holy Fire Sect, the Xuanwu Envoy, is impulsive and irritable, acts domineering and unreasonable, is loyal to the Holy Fire Sect, and looks down upon the Cold Skin Gang, which is in opposition to the Holy Fire Sect.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_时文修</t>
+  </si>
+  <si>
+    <t>冷皮帮三当家，不苟言笑的独眼壮汉。尊霍诗楼的命令在各处打探情报，此次也是奉命在中原找到宝图才返回西域。</t>
+  </si>
+  <si>
+    <t>冷皮幫三當家，不苟言笑的獨眼壯漢。尊霍詩樓的命令在各處打探情報，此次也是奉命在中原找到寶圖才返回西域。</t>
+  </si>
+  <si>
+    <t>The third master of the Cold Skin Gang, a one-eyed Strong man who is reticent. He respects Huo Shilou's orders and gathers information everywhere. This time, he was also ordered to find the treasure map in the Central Plains before returning to the Western Regions.</t>
+  </si>
+  <si>
+    <t>圣火宗四圣使之一的白虎使，负责替圣火宗暗杀敌人。实力高强，性格孤僻，和方啸天有诸多冲突，因而离开圣火宗并在白灵山中隐居。似乎倾心凤璇玑，对凤璇玑唯命是从。</t>
+  </si>
+  <si>
+    <t>One of the four holy envoys of the Holy Fire Sect, the White Tiger Envoy, is responsible for assassinating enemies for the Holy Fire Sect. He is powerful and solitary, has many conflicts with Fang Xiaoian, so he ran away from the Holy Fire Sect and lived in seclusion in Bailing Mountain. He seems to be infatuated with Feng Xuanji and obeys Feng Xuanji's orders.</t>
   </si>
   <si>
     <t>CharacterInfo_紫天</t>
   </si>
   <si>
-    <t>冷皮帮成员，霍诗楼的义子，武功高强且能力出众，堪称年少有为。但其人性情暴戾，做事讲究以暴制暴，以恶制恶，因此也结下了不少仇敌。</t>
-  </si>
-  <si>
-    <t>冷皮幫成員，霍詩樓的義子，武功高強且能力出眾，堪稱年少有為。但其人性情暴戾，做事講究以暴制暴，以惡制惡，因此也結下了不少仇敵。</t>
-  </si>
-  <si>
-    <t>A member of the Cold Skin Gang, {Huo Shilou}'s adopted son, who is highly skilled and outstanding, can be described as promising. However, he is violent in nature and believes in fighting violence with violence and evil with evil, so he has made many enemies.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_霍诗楼</t>
-  </si>
-  <si>
-    <t>冷皮帮帮主，雄踞大漠的霸主，以义字而闻名江湖，收拢了众多江湖好汉，是多方势力想要拉拢的角色。</t>
-  </si>
-  <si>
-    <t>冷皮幫幫主，雄踞大漠的霸主，以義字而聞名江湖，收攏了眾多江湖好漢，是多方勢力想要拉攏的角色。</t>
-  </si>
-  <si>
-    <t>The leader of the Cold Skin Gang, the overlord of the desert, known for his righteousness in the rivers and lakes, has gathered many heroes and is a character that many forces want to win over.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_付瑶琴</t>
-  </si>
-  <si>
-    <t>妙音坊的坊主，有沉鱼落雁之姿，平时在坊中教导弟子，深居简出，少见世人。性情高傲火爆，对天下男儿都抱有极大的敌意，甚至可以毫不犹豫痛下杀手。</t>
-  </si>
-  <si>
-    <t>妙音坊的坊主，有沉魚落雁之姿，平時在坊中教導弟子，深居簡出，少見世人。性情高傲火爆，對天下男兒都抱有極大的敵意，甚至可以毫不猶豫痛下殺手。</t>
-  </si>
-  <si>
-    <t>The master of Melody House, with an alluring beauty, usually teaches disciples in the house, lives a simple life, and rarely sees the world. She is proud and fiery, holds a great hostility towards all men in the world, and can even kill without hesitation.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_命不凡</t>
-  </si>
-  <si>
-    <t>摸金门门主，擅长识风水、寻古墓，凭借这手本事数次大发横财，成立摸金门后，和门下弟子立志搜罗天下所有的奇珍异宝。</t>
-  </si>
-  <si>
-    <t>摸金門門主，擅長識風水、尋古墓，憑藉這手本事數次大發橫財，成立摸金門後，和門下弟子立志蒐羅天下所有的奇珍異寶。</t>
-  </si>
-  <si>
-    <t>The head of the Tomb Raider Sect, adept at identifying Feng Shui and searching for ancient tombs. With these skills, he has made a fortune several times and established the Tomb Raider Sect. He and his disciples are committed to collecting all the rare treasures in the world.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_齐王</t>
-  </si>
-  <si>
-    <t>康王同父异母的哥哥，大梁城破后，由燕国扶植上台，担任监国，表面风光却处处要听命于燕国。愤懑的他只能倾情于字画文玩之中，鲜少过问政事，暗中使儒圣馆替自己积蓄力量，培植党羽。</t>
-  </si>
-  <si>
-    <t>康王同父異母的哥哥，大梁城破後，由燕國扶植上臺，擔任監國，表面風光卻處處要聽命於燕國。憤懣的他只能傾情於字畫文玩之中，鮮少過問政事，暗中使儒聖館替自己積蓄力量，培植黨羽。</t>
-  </si>
-  <si>
-    <t>Kang Wang's half-brother from the same father. After the fall of Daliang City, he was supported by the Yan Kingdom to take the throne as the regent. Despite his apparent glory, he had to obey the Yan Kingdom in everything. Frustrated, he could only indulge in calligraphy and painting, rarely involving himself in politics. He secretly had the Confucius Temple accumulate power for him and cultivate his followers.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_裘之墨</t>
-  </si>
-  <si>
-    <t>神捕门洛天雄的义弟，本领高强不逊于洛天雄，却淡泊名利，甘心辅佐洛天雄。正义感极强，行事以正义为作风，对一切邪恶都不留情面，下手铲除，让恶人们闻风丧胆，夜不能寐。</t>
-  </si>
-  <si>
-    <t>神捕門洛天雄的義弟，本領高強不遜於洛天雄，卻淡泊名利，甘心輔佐洛天雄。正義感極強，行事以正義為作風，對一切邪惡都不留情面，下手剷除，讓惡人們聞風喪膽，夜不能寐。</t>
-  </si>
-  <si>
-    <t>The sworn brother of Luo Tianxiong from the Crime Investigation Bureau. He is as skilled as Luo Tianxiong, but indifferent to fame and wealth, willingly assisting Luo Tianxiong. He has a strong sense of justice, acts with righteousness, shows no mercy to all evil, and eradicates it, making evildoers terrified and sleepless.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_书狂</t>
-  </si>
-  <si>
-    <t>儒圣馆四贤人之一，从小饱读诗书，练习书法，久而久之竟从古诗词和书法中悟出一套武功。和画痴关系匪浅，情同手足。</t>
-  </si>
-  <si>
-    <t>儒聖館四賢人之一，從小飽讀詩書，練習書法，久而久之竟從古詩詞和書法中悟出一套武功。和畫痴關係匪淺，情同手足。</t>
-  </si>
-  <si>
-    <t>One of the four sages of the Confucius Temple. He has been reading poetry and practicing calligraphy since he was a child. Over time, he has realized a set of martial arts from ancient poetry and calligraphy. He has a deep relationship with Hua Chi, like brothers.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_画痴</t>
-  </si>
-  <si>
-    <t>儒圣馆四贤人之一，痴迷于画画，经常话说到一半就随手拿起一样物品就开始作画，对其他的事情从不放在心上。和书狂关系匪浅，但对书狂会在不经自己允许的情况下在自己的画作上题字这件事十分头疼。</t>
-  </si>
-  <si>
-    <t>儒聖館四賢人之一，痴迷於畫畫，經常話說到一半就隨手拿起一樣物品就開始作畫，對其他的事情從不放在心上。和書狂關係匪淺，但對書狂會在不經自己允許的情況下在自己的畫作上題字這件事十分頭疼。</t>
-  </si>
-  <si>
-    <t>One of the four sages of the Confucius Temple, obsessed with painting. He often starts painting with any item at hand in the middle of a conversation, never caring about other things. He has a deep relationship with Shu Kuang, but is very bothered by Shu Kuang writing on his paintings without his permission.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_哑琴</t>
-  </si>
-  <si>
-    <t>儒圣馆四贤人之一，脾气暴躁，有口不言。终日和琴声为伴，从不和人亲近，即便是儒圣馆的人也对她的事情知之甚少。</t>
-  </si>
-  <si>
-    <t>儒聖館四賢人之一，脾氣暴躁，有口不言。終日和琴聲為伴，從不和人親近，即便是儒聖館的人也對她的事情知之甚少。</t>
-  </si>
-  <si>
-    <t>One of the four sages of the Confucius Temple, she is hot-tempered and silent. She spends her days with the sound of the zither, never getting close to people. Even the people of the Confucius Temple know very little about her.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_霸南天</t>
-  </si>
-  <si>
-    <t>沙门岛岛主，十恶不赦的罪犯，被判流放沙门岛，却反过来杀害了看守的将士，成为了沙门岛上土皇帝一样的存在，对新流放来的囚犯有生杀大权。</t>
-  </si>
-  <si>
-    <t>沙門島島主，十惡不赦的罪犯，被判流放沙門島，卻反過來殺害了看守的將士，成為了沙門島上土皇帝一樣的存在，對新流放來的囚犯有生殺大權。</t>
-  </si>
-  <si>
-    <t>The island owner of Shamen Island, a heinous criminal who was sentenced to exile on Shamen Island. However, he turned the tables by killing the guards and became a king-like figure on Shamen Island, having the power of life and death over newly exiled prisoners.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_洛天雄</t>
-  </si>
-  <si>
-    <t>神捕门掌门，天下第一名捕。面对罪犯强硬且执拗，不问天下政权，也不关心江湖事，一心只为缉拿罪犯，创造一个无贼的天下。</t>
-  </si>
-  <si>
-    <t>神捕門掌門，天下第一名捕。面對罪犯強硬且執拗，不問天下政權，也不關心江湖事，一心只為緝拿罪犯，創造一個無賊的天下。</t>
-  </si>
-  <si>
-    <t>The head of the Crime Investigation Bureau, the world's number one detective. He is tough and stubborn in the face of criminals, does not care about the world's political power, nor cares about the affairs of the rivers and lakes. His only goal is to catch criminals and create a world without thieves.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_洛千雪</t>
-  </si>
-  <si>
-    <t>神捕门弟子，洛天雄的亲妹妹，从小就视哥哥为偶像，模仿他的行为举止和风格手段，想要有朝一日成为和哥哥一样的名捕。</t>
-  </si>
-  <si>
-    <t>神捕門弟子，洛天雄的親妹妹，從小就視哥哥為偶像，模仿他的行為舉止和風格手段，想要有朝一日成為和哥哥一樣的名捕。</t>
-  </si>
-  <si>
-    <t>A disciple of the Crime Investigation Bureau, Luo Tianxiong's younger sister. Since childhood, she has idolized her brother, imitating his behavior and style, hoping to become a famous detective like her brother one day.</t>
+    <t>冷皮帮二当家，年纪轻轻便武功高强且能力出众，但性情暴戾，做事以暴制暴，因此结下不少仇敌。</t>
+  </si>
+  <si>
+    <t>冷皮幫二當家，年紀輕輕便武功高強且能力出眾，但性情暴戾，做事以暴制暴，因此結下不少仇敵。</t>
+  </si>
+  <si>
+    <t>The second master of the Cold Skin Gang, despite his young age, he is highly skilled and has outstanding skills. However, he is violent and deals with things by violence, thus making many enemies.</t>
   </si>
   <si>
     <t>CharacterInfo_顾清扬</t>
   </si>
   <si>
-    <t>圣火宗的副宗主，是方啸天的仰慕者，从方啸天守楚襄城起便跟随其左右，在得到方啸天的点拨之后更是修得盖世武功，在圣火宗内颇具名望。</t>
-  </si>
-  <si>
-    <t>聖火宗的副宗主，是方嘯天的仰慕者，從方嘯天守楚襄城起便跟隨其左右，在得到方嘯天的點撥之後更是修得蓋世武功，在聖火宗內頗具名望。</t>
-  </si>
-  <si>
-    <t>The deputy head of the Holy Fire Sect, an admirer of Fang Xiaoian. He has been following Fang Xiaoian since he defended Chuxiang City. After receiving Fang Xiaoian's guidance, he has achieved great martial arts and has a high reputation within the Holy Fire Sect.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_陆剑南</t>
-  </si>
-  <si>
-    <t>万兽山庄的少庄主，唐太君的亲生儿子，但是却对接管山庄没有任何兴趣，反而是喜欢游山玩水，不务正业。爱宠失踪后私自离开山庄，踏上寻宠之旅。</t>
-  </si>
-  <si>
-    <t>萬獸山莊的少莊主，唐太君的親生兒子，但是卻對接管山莊沒有任何興趣，反而是喜歡遊山玩水，不務正業。愛寵失蹤後私自離開山莊，踏上尋寵之旅。</t>
-  </si>
-  <si>
-    <t>The young master of the Beast Mountain Villa, Tang Tai Jun's biological son. However, he has no interest in taking over the villa, but prefers to travel and play, not doing his proper duties. After his pet went missing, he ran away from the villa to find it.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_唐太君</t>
-  </si>
-  <si>
-    <t>万兽山庄庄主，传说中的“八圣”之一。楚襄城一战后遵守约定守卫西南，威名赫赫让西南各部不敢妄想踏足中原。但随着大梁陷落赵皇被掳，唐太君自感年事已高，想要退居幕后，让年轻人接手山庄。</t>
-  </si>
-  <si>
-    <t>萬獸山莊莊主，傳說中的“八聖”之一。楚襄城一戰後遵守約定守衛西南，威名赫赫讓西南各部不敢妄想踏足中原。但隨著大梁陷落趙皇被擄，唐太君自感年事已高，想要退居幕後，讓年輕人接手山莊。</t>
-  </si>
-  <si>
-    <t>The owner of the Beast Mountain Villa, one of the legendary "Eight Saints". After the battle of Chuxiang City, he kept his promise to guard the southwest, his fame deterred the various factions in the southwest from daring to step into the Central Plains. But with the fall of Daliang and the capture of the Zhao Emperor, Tang Tai Jun felt his age and wanted to retire, letting the younger generation take over the villa.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_唐婉儿</t>
-  </si>
-  <si>
-    <t>万兽山庄唐太君的侄女，陆剑南的表妹，为人温婉可爱，天生对野兽有亲和力。从小就依恋表哥，但表哥却对她避之不及。陆剑南离家出走后，留在山庄帮助唐太君处理山庄上下事务。</t>
-  </si>
-  <si>
-    <t>萬獸山莊唐太君的侄女，陸劍南的表妹，為人溫婉可愛，天生對野獸有親和力。從小就依戀表哥，但表哥卻對她避之不及。陸劍南離家出走後，留在山莊幫助唐太君處理山莊上下事務。</t>
-  </si>
-  <si>
-    <t>Tang Tai Jun's niece from the Beast Mountain Villa, Lu Jian Nan's cousin. She is gentle and lovely, with a natural affinity for wild animals. She has been attached to her cousin since she was a child, but her cousin avoids her. After Lu Jian Nan ran away from home, she stayed in the villa to help Tang Tai Jun manage the affairs.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_方小白</t>
-  </si>
-  <si>
-    <t>普普通通的店小二，总是听酒客们说江湖事，对江湖心生向往，希望自己有朝一日也能成为大侠行走江湖。</t>
-  </si>
-  <si>
-    <t>普普通通的店小二，總是聽酒客們說江湖事，對江湖心生嚮往，希望自己有朝一日也能成為大俠行走江湖。</t>
-  </si>
-  <si>
-    <t>An ordinary waiter, always listening to the guests talking about the rivers and lakes, longing for the rivers and lakes, hoping that one day he can also become a hero in the rivers and lakes.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_杨幺儿</t>
-  </si>
-  <si>
-    <t>看似普通兵丁，其实是杨家的后人，在杨家被迫害后过了十几年东躲西藏的生活，最近才重归安稳。为重振杨家英名，他毅然入伍，期待有朝一日成为父辈那样威震天下的大将军。</t>
-  </si>
-  <si>
-    <t>看似普通兵丁，其實是楊家的後人，在楊家被迫害後過了十幾年東躲西藏的生活，最近才重歸安穩。為重振楊家英名，他毅然入伍，期待有朝一日成為父輩那樣威震天下的大將軍。</t>
-  </si>
-  <si>
-    <t>Seemingly an ordinary soldier, he is actually a descendant of the Yang family. After the Yang family was persecuted, he lived a life of hiding for more than a decade, and only recently returned to a peaceful life. In order to restore the glory of the Yang family, he resolutely joined the army, hoping to become a great general who shakes the world like his father one day.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_半瓶神仙醋</t>
-  </si>
-  <si>
-    <t>江湖上最为神秘的侠客，没有人知道他来自何处，但江湖上处处都有他的传说。</t>
-  </si>
-  <si>
-    <t>江湖上最為神秘的俠客，沒有人知道他來自何處，但江湖上處處都有他的傳說。</t>
-  </si>
-  <si>
-    <t>The most mysterious knight in the martial arts world, no one knows where he comes from, but there are legends about him everywhere in the martial arts world.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_无名小村猎户</t>
-  </si>
-  <si>
-    <t>无名小村的猎户，打猎技术高超。昔日是守卫楚襄城的杨将军部下，杨家军解散后逃到无名小村躲避，从此隐姓埋名，以打猎为生。</t>
-  </si>
-  <si>
-    <t>無名小村的獵戶，打獵技術高超。昔日是守衛楚襄城的楊將軍部下，楊家軍解散後逃到無名小村躲避，從此隱姓埋名，以打獵為生。</t>
-  </si>
-  <si>
-    <t>A hunter from Nameless village with superb hunting skills. He used to be a subordinate of General Yang who defended Chuxiang City. After the Yang army was disbanded, he fled to Nameless village to hide, and since then he has been living incognito, making a living by hunting.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_无名小村铁匠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无名小村的铁匠，力大如牛，有一手顶尖的打铁技巧。嗜酒如命，因此欠下花四娘不少酒钱。
-原先是琅琊剑阁大弟子，年轻时人称“玉面干将”，但是现在完全看不出来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無名小村的鐵匠，力大如牛，有一手頂尖的打鐵技巧。嗜酒如命，因此欠下花四娘不少酒錢。
-原先是琅琊劍閣大弟子，年輕時人稱“玉面干將”，但是現在完全看不出來。</t>
-  </si>
-  <si>
-    <t>The blacksmith of Nameless village, strong as a bull, with top-notch blacksmithing skills. He is addicted to alcohol and therefore owes Hua Siniang a lot of wine money. He used to be the top disciple of Langya Sword Pavilion. When he was young, he was known as "Jade-faced Ganjiang", but now he can't see it at all.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_无名小村郎中</t>
-  </si>
-  <si>
-    <t>年少时一心钻研学医，本想医术大成后救济天下人，奈何天赋不够，蹉跎半生仍旧只知皮毛，只能沦为乡里郎中，治一些风寒小病糊口。</t>
-  </si>
-  <si>
-    <t>年少時一心鑽研學醫，本想醫術大成後救濟天下人，奈何天賦不夠，蹉跎半生仍舊只知皮毛，只能淪為鄉里郎中，治一些風寒小病餬口。</t>
-  </si>
-  <si>
-    <t>When he was young, he devoted himself to studying medicine, hoping to save the world after becoming a great doctor. However, due to his lack of talent, he only knew the basics after wasting half of his life, and could only become a country doctor, treating some minor illnesses to make ends meet.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_无名小村老板娘</t>
-  </si>
-  <si>
-    <t>无名客栈的老板娘，有一手好厨艺，性格泼辣、刚柔并济。一个人苦苦经营无名客栈，据包打听说追她的人能排到无名小村村口，却不见有得她芳心的。</t>
-  </si>
-  <si>
-    <t>無名客棧的老闆娘，有一手好廚藝，性格潑辣、剛柔並濟。一個人苦苦經營無名客棧，據包打聽說追她的人能排到無名小村村口，卻不見有得她芳心的。</t>
-  </si>
-  <si>
-    <t>The proprietress of Nameless hotel, with excellent cooking skills, a fiery and flexible character. She runs Nameless hotel alone. According to Bao Dating, the people who pursued her could line up to the entrance of Nameless village, but no one could win her heart.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_无名小村包打听</t>
-  </si>
-  <si>
-    <t>无名小村里游手好闲的年轻人，平日里到处打听八卦，靠着打听到的小道消息和人换点小钱为生。</t>
-  </si>
-  <si>
-    <t>無名小村裡遊手好閒的年輕人，平日裡到處打聽八卦，靠著打聽到的小道消息和人換點小錢為生。</t>
-  </si>
-  <si>
-    <t>A young man in Nameless village who is idle all day, usually inquiring about gossip everywhere, making a living by exchanging the gossip he heard for some small money.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_华青青</t>
-  </si>
-  <si>
-    <t>燕子窝中极为少见的女飞贼，同时也是燕子窝的新晋弟子，步绝尘对她寄予厚望，她自己也勤奋有加，近日终于找到方法突破瓶颈，有望武功更上一层楼。</t>
-  </si>
-  <si>
-    <t>燕子窩中極為少見的女飛賊，同時也是燕子窩的新晉弟子，步絕塵對她寄予厚望，她自己也勤奮有加，近日終於找到方法突破瓶頸，有望武功更上一層樓。</t>
-  </si>
-  <si>
-    <t>A very rare female thief in Nest of Swallow, and also a new disciple of Nest of Swallow. Bu Juechen has high hopes for her, and she herself is also diligent. Recently, she finally found a way to break through the bottleneck and is expected to improve her martial arts.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_一枝花</t>
-  </si>
-  <si>
-    <t>长乐柜坊的掌柜，有一手高超的赌技。一手管理整个长乐柜坊上上下下的所有事宜，其豪放的行事作风对比一般男性豪侠也不遑多让。</t>
-  </si>
-  <si>
-    <t>長樂櫃坊的掌櫃，有一手高超的賭技。一手管理整個長樂櫃坊上上下下的所有事宜，其豪放的行事作風對比一般男性豪俠也不遑多讓。</t>
-  </si>
-  <si>
-    <t>The shopkeeper of Zhangyue Casino, with superb gambling skills. He manages all the affairs of the entire Zhangyue Casino, and his bold style of doing things is no less than that of a general male hero.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_鱼薇儿</t>
-  </si>
-  <si>
-    <t>被妙音坊坊主付瑶琴收养的孤儿，付瑶琴对她爱如己出、关怀得无微不至。鱼薇儿在妙音坊中无忧无虑地成长，从未知晓人心的险恶。</t>
-  </si>
-  <si>
-    <t>被妙音坊坊主付瑤琴收養的孤兒，付瑤琴對她愛如己出、關懷得無微不至。魚薇兒在妙音坊中無憂無慮地成長，從未知曉人心的險惡。</t>
-  </si>
-  <si>
-    <t>An orphan adopted by the master of Melody House, Fu Yaoqin, who loves her as her own and takes care of her meticulously. Yu Weier grows up carefree in Melody House, never knowing the evil of human nature.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_燕歌行</t>
-  </si>
-  <si>
-    <t>在无名小村拜的师父，原本以为只是个不正经的老头，真实身份是老魔头楚狂生的师弟、九流门的真正成立者。因被仇家暗算导致武功尽失，经脉尽毁。如今已经治愈旧伤、功力恢复，准备去完成自己的毕生心愿。</t>
-  </si>
-  <si>
-    <t>在無名小村拜的師父，原本以為只是個不正經的老頭，真實身份是老魔頭楚狂生的師弟、九流門的真正成立者。因被仇家暗算導致武功盡失，經脈盡毀。如今已經治癒舊傷、功力恢復，準備去完成自己的畢生心願。</t>
-  </si>
-  <si>
-    <t>The master who was worshipped in Nameless village, originally thought to be just an unserious old man, his real identity is the younger brother of Lao Motou Chu Kuangsheng, the real founder of Nine Factions Sect. Due to being ambushed by enemies, he lost all his martial arts and his meridians were destroyed. Now he has healed his old injuries and recovered his strength, ready to fulfill his lifelong wish.</t>
-  </si>
-  <si>
-    <t>CharacterInfo_霖安群芳馆馆主</t>
-  </si>
-  <si>
-    <t>霖安城群芳馆的馆主，虽然自称年老色衰，但却仍有绝代风华。经营风月场所多年，仍希望能找到自己的真命天子。</t>
-  </si>
-  <si>
-    <t>霖安城群芳館的館主，雖然自稱年老色衰，但卻仍有絕代風華。經營風月場所多年，仍希望能找到自己的真命天子。</t>
-  </si>
-  <si>
-    <t>The master of Maiden House in Lin'an City, although she claims to be old and faded, she still has unparalleled charm. After running a brothel for many years, she still hopes to find her true love.</t>
+    <t>圣火宗四圣使之一的青龙使，圣火宗之内除宗主外的第一高手，为圣火宗立下汗马功劳。自认为是副宗主乃至下任宗主的不二人选。</t>
+  </si>
+  <si>
+    <t>聖火宗四聖使之一的青龍使，聖火宗之內除宗主外的第一高手，為聖火宗立下汗馬功勞。自認為是副宗主乃至下任宗主的不二人選。</t>
+  </si>
+  <si>
+    <t>One of the four holy envoys of the Holy Fire Sect, the Qinglong Envoy, is the top expert in the Holy Fire Sect besides the sect master, and has made great contributions to the Holy Fire Sect. He considers himself the only choice for the deputy sect master or even the next sect master.</t>
   </si>
   <si>
     <t>skip</t>
   </si>
   <si>
+    <t>CharacterInfo_野狼王啸月</t>
+  </si>
+  <si>
+    <t>野狼谷中的狼王，一身银白的皮毛在夜间也十分显眼。刘十八多年前将其偷偷养在军营中，杨将军含冤后一直在野狼谷中守护杨将军的衣冠冢，十分凶猛也十分忠心。</t>
+  </si>
+  <si>
+    <t>野狼谷中的狼王，一身銀白的皮毛在夜間也十分顯眼。劉十八多年前將其偷偷養在軍營中，楊將軍含冤後一直在野狼谷中守護楊將軍的衣冠冢，十分兇猛也十分忠心。</t>
+  </si>
+  <si>
+    <t>The wolf king of the Wild Wolf Valley, its silver-white fur is very noticeable even at night. Liu Shiba secretly raised it in the military camp years ago. After General Yang was wronged, it has been guarding General Yang's tomb in the Wild Wolf Valley, showing great ferocity and loyalty.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_赤睛棕熊赤睛</t>
+  </si>
+  <si>
+    <t>生在襄樊地区断魂林深处的棕熊，双眼赤红，不知是何品种。脾气暴烈且力大无穷，降服它实实在在费了一番功夫。</t>
+  </si>
+  <si>
+    <t>生在襄樊地區斷魂林深處的棕熊，雙眼赤紅，不知是何品種。脾氣暴烈且力大無窮，降服它實實在在費了一番功夫。</t>
+  </si>
+  <si>
+    <t>A brown bear born deep in the XiangfanForest of Broken Souls, with red eyes, of unknown species. It has a violent temper and immense strength, and it took a lot of effort to tame it.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_野猪头目刚烈</t>
+  </si>
+  <si>
+    <t>在无名地区迷踪林深处生活的野猪，不知为何通体赤红，长得也比普通野猪要大。虽然看起来很凶但是其实胆子不大，而且十分贪吃，抓住以上特征就很容易和它相处。</t>
+  </si>
+  <si>
+    <t>在無名地區迷蹤林深處生活的野豬，不知為何通體赤紅，長得也比普通野豬要大。雖然看起來很兇但是其實膽子不大，而且十分貪吃，抓住以上特徵就很容易和它相處。</t>
+  </si>
+  <si>
+    <t>A wild boar living deep in the Nameless Region Lost Forest, for some reason its body is red and it is larger than ordinary wild boars. Although it looks fierce, it is actually timid and very greedy. Understanding these characteristics makes it easy to get along with.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_猎户的大黑狗</t>
+  </si>
+  <si>
+    <t>刘十八饲养的黑狗，忠实地实行替刘十八看家护院的工作。刘十八对这狗十分喜爱，但王大锤似乎就不一样了……</t>
+  </si>
+  <si>
+    <t>劉十八飼養的黑狗，忠實地實行替劉十八看家護院的工作。劉十八對這狗十分喜愛，但王大錘似乎就不一樣了……</t>
+  </si>
+  <si>
+    <t>A black dog raised by Liu Shiba, faithfully carrying out the task of guarding the house for Liu Shiba. Liu Shiba loves this dog very much, but it seems that Wang Dachui doesn't feel the same way...</t>
+  </si>
+  <si>
+    <t>CharacterInfo_无名小村大公鸡</t>
+  </si>
+  <si>
+    <t>无名小村中趾高气昂的一只大公鸡，是无名小村鸡群的首领，领地意识很强，村里的村民都不敢随意招惹它。至于为什么人能骑着一只鸡出远门，这倒是个未解之谜。</t>
+  </si>
+  <si>
+    <t>無名小村中趾高氣昂的一隻大公雞，是無名小村雞群的首領，領地意識很強，村裏的村民都不敢隨意招惹它。至於為什麼人能騎著一隻雞出遠門，這倒是個未解之謎。</t>
+  </si>
+  <si>
+    <t>A proud rooster in the Nameless village, the leader of the village's chicken flock, with a strong sense of territory. The villagers dare not provoke it at will. As for why people can ride a chicken on long journeys, that's an unsolved mystery.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_老虎山君</t>
+  </si>
+  <si>
+    <t>CharacterInfo_白猿白首</t>
+  </si>
+  <si>
+    <t>在长生冢深处遇到的白色巨猿，不知为何会出现在古墓之中，也不知为何会守护棺椁。真是个充满谜团的圣物。</t>
+  </si>
+  <si>
+    <t>在長生冢深處遇到的白色巨猿，不知為何會出現在古墓之中，也不知為何會守護棺槨。真是個充滿謎團的聖物。</t>
+  </si>
+  <si>
+    <t>A white giant ape encountered deep in the Longevity Tomb, it's unknown why it appears in the ancient tomb and why it guards the coffin. It's truly a mysterious relic.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_猴子追风</t>
+  </si>
+  <si>
+    <t>在释法寺内各处游荡的金色猿猴，似乎十分聪明，每天早课还能看见它的身影。对于佛法的理解也十分深刻，真要和它辩经的话普通僧人还真未必是对手。</t>
+  </si>
+  <si>
+    <t>在釋法寺內各處遊蕩的金色猿猴，似乎十分聰明，每天早課還能看見它的身影。對於佛法的理解也十分深刻，真要和它辯經的話普通僧人還真未必是對手。</t>
+  </si>
+  <si>
+    <t>Golden monkeys wandering around in the Shifa Temple, they seem very smart, and their figures can be seen during the morning classes every day. Their understanding of Buddhism is also very profound, and ordinary monks may not be their opponents in a debate.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_熊猫玄霜</t>
+  </si>
+  <si>
+    <t>难得一见的食铁兽，生活在西南地区的竹林深处，过着衣食无忧的逍遥生活。长得憨态可掬，十分可爱，但其实力气大得出奇，是个不折不扣的猛兽。</t>
+  </si>
+  <si>
+    <t>難得一見的食鐵獸，生活在西南地區的竹林深處，過著衣食無憂的逍遙生活。長得憨態可掬，十分可愛，但其實力氣大得出奇，是個不折不扣的猛獸。</t>
+  </si>
+  <si>
+    <t>A rare Iron-eating Beast, living deep in the Bamboo Forest of the Southwest region, leading an Adventurous life without worries about food and clothing. It looks Pure and Honest, very cute, but it is surprisingly strong, a real beast.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_猫三花</t>
+  </si>
+  <si>
+    <t>楚襄城内的野猫，因为在忘忧楼后生活的缘故，对食物要求颇高，堪称动物中的“美食家”。至于为什么猫会拉车，那是又一个未解之谜。</t>
+  </si>
+  <si>
+    <t>楚襄城內的野貓，因為在忘憂樓後生活的緣故，對食物要求頗高，堪稱動物中的“美食家”。至於為什麼貓會拉車，那是又一個未解之謎。</t>
+  </si>
+  <si>
+    <t>A stray cat in Chuxiang City, due to living behind the Sorrowless Tavern, it has high demands for food, and can be called a "gourmet" among animals. As for why cats can pull carts, that's another unsolved mystery.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_狗王</t>
+  </si>
+  <si>
+    <t>楚襄城内的一条流浪狗，看在它实在可怜的份上，喂它一些肉吃吧。</t>
+  </si>
+  <si>
+    <t>楚襄城內的一條流浪狗，看在它實在可憐的份上，喂它一些肉吃吧。</t>
+  </si>
+  <si>
+    <t>A stray dog in Chuxiang City, feed it some meat out of pity for its pitiful state.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_琅琊剑阁后山黑猿</t>
+  </si>
+  <si>
+    <t>琅琊剑阁后山深处的巨大猿猴，性情狂躁，多名剑阁弟子都被它伤过，不过似乎意外的能讲通道理。</t>
+  </si>
+  <si>
+    <t>琅琊劍閣後山深處的巨大猿猴，性情狂躁，多名劍閣弟子都被它傷過，不過似乎意外的能講通道理。</t>
+  </si>
+  <si>
+    <t>A giant monkey deep in the back mountain of Langya Sword Pavilion, it has a violent temper, and many disciples of the sword pavilion have been injured by it, but it seems surprisingly reasonable.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_毒龙</t>
+  </si>
+  <si>
+    <t>苗木黎饲养在毒龙窟内的蜥蜴，因数年如一日地食用毒物，它的体内也蕴含了大量毒素。</t>
+  </si>
+  <si>
+    <t>苗木黎飼養在毒龍窟內的蜥蜴，因數年如一日地食用毒物，它的體內也蘊含了大量毒素。</t>
+  </si>
+  <si>
+    <t>A lizard raised by Miao Muli in the Poison Dragon Cave, after years of eating Toxic, its body also contains a large amount of toxins.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_异变毒龙</t>
+  </si>
+  <si>
+    <t>苗木黎饲养在毒龙窟内的蜥蜴，可能是由于毒物吃得太多了而发生变异，变得通体赤红，体液中也带有剧毒。话说站在它身上远行真的没问题吗？</t>
+  </si>
+  <si>
+    <t>苗木黎飼養在毒龍窟內的蜥蜴，可能是由於毒物吃得太多了而發生變異，變得通體赤紅，體液中也帶有劇毒。話說站在它身上遠行真的沒問題嗎？</t>
+  </si>
+  <si>
+    <t>A lizard raised by Miao Muli in the Poison Dragon Cave, it may have mutated due to eating too much Toxic, turning its body red, and its body fluids are also highly toxic. Is it really okay to ride on it for long journeys?</t>
+  </si>
+  <si>
+    <t>CharacterInfo_雪绒</t>
+  </si>
+  <si>
+    <t>一只幼年雪豹，长得只比普通小猫大一点点，而且也会发出低沉的“喵喵”叫，一不留神还真容易把它当成小猫。</t>
+  </si>
+  <si>
+    <t>一隻幼年雪豹，長得只比普通小貓大一點點，而且也會發出低沉的“喵喵”叫，一不留神還真容易把它當成小貓。</t>
+  </si>
+  <si>
+    <t>A young snow leopard, only a little bigger than a regular kitten, and it also makes a low "meow" sound, if you're not careful, you might mistake it for a kitten.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_白虎</t>
+  </si>
+  <si>
+    <t>生活在西南大雪山山洞中的白虎，被附近的居民奉为山神，逢年过节都会给它献上食物祈祷生活安定，不过到底有没有作用就另当别论了。</t>
+  </si>
+  <si>
+    <t>生活在西南大雪山山洞中的白虎，被附近的居民奉為山神，逢年過節都會給它獻上食物祈禱生活安定，不過到底有沒有作用就另當別論了。</t>
+  </si>
+  <si>
+    <t>The white tiger living in the Mountain cave of the Southwest Snow Mountain is worshipped as a mountain god by the nearby residents, who offer Food to it during festivals and pray for a stable life, but whether it works or not is another matter.</t>
+  </si>
+  <si>
+    <t>CharacterInfo_火蟾蜍</t>
+  </si>
+  <si>
+    <t>栖息在火蟾洞内的火蟾蜍，以火蟾洞内的硫磺为食，又因火蟾洞炎热异常，因此体内积攒了大量的火毒，生人若是贸然靠近一定会被它的火毒灼伤。</t>
+  </si>
+  <si>
+    <t>棲息在火蟾洞內的火蟾蜍，以火蟾洞內的硫磺為食，又因火蟾洞炎熱異常，因此體內積攢了大量的火毒，生人若是貿然靠近一定會被它的火毒灼傷。</t>
+  </si>
+  <si>
+    <t>The Flame Toad that lives in the Flame Toad Cave feeds on the sulfur in the Flame Toad Cave. Because the Flame Toad Cave is extremely hot, it has accumulated a lot of fire poison in its body. If a person rashly approaches it, they will definitely be burned by its fire poison.</t>
+  </si>
+  <si>
     <t>MoralFondness_长春子</t>
   </si>
   <si>
@@ -1500,7 +1929,7 @@
     <t>嫉惡如仇，抱誠守真。</t>
   </si>
   <si>
-    <t>Evil slayer, sincere and truthful.</t>
+    <t>Despise evil, Sincere.</t>
   </si>
   <si>
     <t>MoralFondness_洪小七</t>
@@ -1512,7 +1941,19 @@
     <t>百折不撓，不拘小節。</t>
   </si>
   <si>
-    <t>Indomitable, not stickler for trifles.</t>
+    <t>Unyielding, Nonchalant.</t>
+  </si>
+  <si>
+    <t>MoralFondness_任中横</t>
+  </si>
+  <si>
+    <t>奋勇当先，重信守诺。</t>
+  </si>
+  <si>
+    <t>奮勇當先，重信守諾。</t>
+  </si>
+  <si>
+    <t>Heroic and trustworthy.</t>
   </si>
   <si>
     <t>MoralFondness_苗彩蝶</t>
@@ -1521,7 +1962,7 @@
     <t>慧心巧思，赤子之心。</t>
   </si>
   <si>
-    <t>Ingenious, innocent at heart.</t>
+    <t>Ingenious, Childlike.</t>
   </si>
   <si>
     <t>MoralFondness_释嗔</t>
@@ -1533,7 +1974,7 @@
     <t>重信守諾，捨生取義。</t>
   </si>
   <si>
-    <t>Keep promises, Righteous offering.</t>
+    <t>Trustworthy, Valiant.</t>
   </si>
   <si>
     <t>MoralFondness_凌鸿轩</t>
@@ -1545,7 +1986,7 @@
     <t>赴湯蹈火，一諾千金。</t>
   </si>
   <si>
-    <t>Go through fire and water for Soup, keep promises worth a thousand gold.</t>
+    <t>Courageous, Trustworthy.</t>
   </si>
   <si>
     <t>MoralFondness_凌梦蝶</t>
@@ -1557,7 +1998,7 @@
     <t>博聞強識，仁者愛人。</t>
   </si>
   <si>
-    <t>Knowledgeable and strong, benevolent and loving.</t>
+    <t>Knowledgeable, Compassionate.</t>
   </si>
   <si>
     <t>MoralFondness_叶银瓶</t>
@@ -1569,9 +2010,6 @@
     <t>見義勇為，言而有信。</t>
   </si>
   <si>
-    <t>Brave to do what is right, keep one's word.</t>
-  </si>
-  <si>
     <t>MoralFondness_重阳子</t>
   </si>
   <si>
@@ -1581,7 +2019,7 @@
     <t>心懷天下，義薄雲天。</t>
   </si>
   <si>
-    <t>Bearing the world in mind, Virtuous.</t>
+    <t>Benevolent, Righteous.</t>
   </si>
   <si>
     <t>MoralFondness_邋遢张</t>
@@ -1593,7 +2031,7 @@
     <t>重信守諾，當仁不讓。</t>
   </si>
   <si>
-    <t>Keep promises, not shirk one's duty.</t>
+    <t>Turstworthy, Duitful.</t>
   </si>
   <si>
     <t>MoralFondness_蔡元常</t>
@@ -1605,7 +2043,7 @@
     <t>克己復禮，博古通今。</t>
   </si>
   <si>
-    <t>Self-discipline and respect for others, knowledgeable about the past and the present.</t>
+    <t>Self-discipline, Scholarly.</t>
   </si>
   <si>
     <t>MoralFondness_蔡攸之</t>
@@ -1617,19 +2055,19 @@
     <t>謙謙君子，正心誠意。</t>
   </si>
   <si>
-    <t>Modest gentleman, sincere and honest.</t>
+    <t>Modest, Sincere.</t>
   </si>
   <si>
     <t>MoralFondness_曼陀罗</t>
   </si>
   <si>
-    <t>虚情假意，言而有信。</t>
-  </si>
-  <si>
-    <t>虛情假意，言而有信。</t>
-  </si>
-  <si>
-    <t>Insincere, yet trustworthy.</t>
+    <t>以德报怨，言而有信。</t>
+  </si>
+  <si>
+    <t>以德報怨，言而有信。</t>
+  </si>
+  <si>
+    <t>Repay kindness with kindness, keep your word.</t>
   </si>
   <si>
     <t>MoralFondness_步绝尘</t>
@@ -1641,7 +2079,7 @@
     <t>不拘小節，重信守諾。</t>
   </si>
   <si>
-    <t>Not stickler for trifles, keep promises.</t>
+    <t>Nonchalant, Trustworthy</t>
   </si>
   <si>
     <t>MoralFondness_慧元</t>
@@ -1671,13 +2109,13 @@
     <t>MoralFondness_完颜昭宁</t>
   </si>
   <si>
-    <t>勇冠三军，机智无双</t>
-  </si>
-  <si>
-    <t>勇冠三軍，機智無雙</t>
-  </si>
-  <si>
-    <t>Brave as the best of armies, unmatched in wit.</t>
+    <t>勇冠三军，机智无双。</t>
+  </si>
+  <si>
+    <t>勇冠三軍，機智無雙。</t>
+  </si>
+  <si>
+    <t>Brave and wise, unparalleled in intelligence.</t>
   </si>
   <si>
     <t>MoralFondness_庖春秋</t>
@@ -1728,6 +2166,42 @@
     <t>Unstoppable, Righteous offering.</t>
   </si>
   <si>
+    <t>MoralFondness_定风波</t>
+  </si>
+  <si>
+    <t>重情重义，言而有信。</t>
+  </si>
+  <si>
+    <t>重情重義，言而有信。</t>
+  </si>
+  <si>
+    <t>Value friendship and loyalty, keep your word.</t>
+  </si>
+  <si>
+    <t>MoralFondness_定海棠</t>
+  </si>
+  <si>
+    <t>奋勇当先，两肋插刀。</t>
+  </si>
+  <si>
+    <t>奮勇當先，兩肋插刀。</t>
+  </si>
+  <si>
+    <t>Heroic and loyal, ready to take a knife for friends.</t>
+  </si>
+  <si>
+    <t>MoralFondness_诸葛神机</t>
+  </si>
+  <si>
+    <t>足智多谋，目无仁义。</t>
+  </si>
+  <si>
+    <t>足智多謀，目無仁義。</t>
+  </si>
+  <si>
+    <t>Wise and cunning, ruthless and unrighteous.</t>
+  </si>
+  <si>
     <t>MoralFondness_穆再兴</t>
   </si>
   <si>
@@ -1896,6 +2370,9 @@
     <t>MoralFondness_李乐雅</t>
   </si>
   <si>
+    <t>MoralFondness_时文修</t>
+  </si>
+  <si>
     <t>MoralFondness_曲忘忧</t>
   </si>
   <si>
@@ -1920,6 +2397,18 @@
     <t>Arrogant and impolite, selfish.</t>
   </si>
   <si>
+    <t>MoralFondness_燕罗冲</t>
+  </si>
+  <si>
+    <t>言出必践，肝胆相照。</t>
+  </si>
+  <si>
+    <t>言出必踐，肝膽相照。</t>
+  </si>
+  <si>
+    <t>Keep promises and treat each other with sincerity.</t>
+  </si>
+  <si>
     <t>MoralFondness_福箐郡主</t>
   </si>
   <si>
@@ -1932,6 +2421,21 @@
     <t>Courteous, keep one's word and act accordingly.</t>
   </si>
   <si>
+    <t>MoralFondness_紫天</t>
+  </si>
+  <si>
+    <t>MoralFondness_霍诗楼</t>
+  </si>
+  <si>
+    <t>无所畏惧，肝胆相照。</t>
+  </si>
+  <si>
+    <t>無所畏懼，肝膽相照。</t>
+  </si>
+  <si>
+    <t>Fearless and treat each other with sincerity.</t>
+  </si>
+  <si>
     <t>MoralFondness_付瑶琴</t>
   </si>
   <si>
@@ -2016,6 +2520,55 @@
     <t>Charitable and trustworthy.</t>
   </si>
   <si>
+    <t>MoralFondness_顾清扬</t>
+  </si>
+  <si>
+    <t>足智多谋，重信守诺。</t>
+  </si>
+  <si>
+    <t>足智多謀，重信守諾。</t>
+  </si>
+  <si>
+    <t>Wise and trustworthy.</t>
+  </si>
+  <si>
+    <t>MoralFondness_陆剑南</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重情重义，言而有信。</t>
+    </r>
+  </si>
+  <si>
+    <t>MoralFondness_唐婉儿</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心慈面善，彬彬有礼。</t>
+    </r>
+  </si>
+  <si>
+    <t>心慈面善，彬彬有禮。</t>
+  </si>
+  <si>
+    <t>Kind-hearted and Courteous.</t>
+  </si>
+  <si>
+    <t>MoralFondness_唐太君</t>
+  </si>
+  <si>
     <t>MoralFondness_方小白</t>
   </si>
   <si>
@@ -2076,6 +2629,66 @@
     <t>Innocent at heart, Courteous.</t>
   </si>
   <si>
+    <t>MoralFondness_燕歌行</t>
+  </si>
+  <si>
+    <t>仁义双全，忧国忧民。</t>
+  </si>
+  <si>
+    <t>仁義雙全，憂國憂民。</t>
+  </si>
+  <si>
+    <t>Benevolence and righteousness Duality, worry about the country and the people.</t>
+  </si>
+  <si>
+    <t>MoralFondness_鹰兄</t>
+  </si>
+  <si>
+    <t>杀身成仁，舍生取义。</t>
+  </si>
+  <si>
+    <t>殺身成仁，捨生取義。</t>
+  </si>
+  <si>
+    <t>Sacrifice for righteousness, Righteous offering.</t>
+  </si>
+  <si>
+    <t>MoralFondness_凤璇玑</t>
+  </si>
+  <si>
+    <t>果敢干练，机谋善断。</t>
+  </si>
+  <si>
+    <t>果敢幹練，機謀善斷。</t>
+  </si>
+  <si>
+    <t>Decisive and good at strategizing.</t>
+  </si>
+  <si>
+    <t>MoralFondness_何德诺</t>
+  </si>
+  <si>
+    <t>背信弃义，损人利己。</t>
+  </si>
+  <si>
+    <t>背信棄義，損人利己。</t>
+  </si>
+  <si>
+    <t>Unfaithful and self-serving.</t>
+  </si>
+  <si>
+    <t>MoralFondness_海棠秋</t>
+  </si>
+  <si>
+    <t>激流勇进，重信守诺。</t>
+  </si>
+  <si>
+    <t>激流勇進，重信守諾。</t>
+  </si>
+  <si>
+    <t>Brave and trustworthy.</t>
+  </si>
+  <si>
     <t>MoralFondness_无名小村猎户</t>
   </si>
   <si>
@@ -2139,13 +2752,13 @@
     <t>MoralFondness_霖安群芳馆馆主</t>
   </si>
   <si>
-    <t>无所畏惧，一诺千金</t>
-  </si>
-  <si>
-    <t>無所畏懼，一諾千金</t>
-  </si>
-  <si>
-    <t>Fearless, a promise worth a thousand gold.</t>
+    <t>无所畏惧，一诺千金。</t>
+  </si>
+  <si>
+    <t>無所畏懼，一諾千金。</t>
+  </si>
+  <si>
+    <t>Fearless, a man of his word.</t>
   </si>
   <si>
     <t>end</t>
@@ -2154,7 +2767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2312,12 +2925,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2656,7 +3275,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -2680,16 +3299,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
@@ -2698,89 +3317,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment vertical="center"/>
@@ -2803,7 +3422,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
@@ -2827,16 +3446,16 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="19">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" xfId="19">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="20">
@@ -2845,85 +3464,85 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -2948,6 +3567,9 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3274,10 +3896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3287,6 +3909,7 @@
     <col min="3" max="3" width="34.75" customWidth="1" style="53"/>
     <col min="4" max="4" width="60.8833333333333" customWidth="1" style="54"/>
     <col min="5" max="5" width="43.1333333333333" customWidth="1" style="53"/>
+    <col min="6" max="6" width="30.5" customWidth="1" style="50"/>
     <col min="7" max="7" width="18.3833333333333" customWidth="1" style="55"/>
     <col min="8" max="8" width="15.75" customWidth="1" style="55"/>
     <col min="9" max="9" width="17.3833333333333" customWidth="1" style="55"/>
@@ -3407,14 +4030,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="25.5">
+    <row r="7" ht="24">
       <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="53" t="s">
@@ -3431,7 +4054,7 @@
       <c r="C8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="53" t="s">
@@ -3441,7 +4064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="36">
+    <row r="9" ht="24">
       <c r="B9" s="61" t="s">
         <v>13</v>
       </c>
@@ -3499,7 +4122,7 @@
       <c r="C12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="53" t="s">
@@ -3516,7 +4139,7 @@
       <c r="C13" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="53" t="s">
@@ -3526,7 +4149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="24">
+    <row r="14" ht="36">
       <c r="B14" s="61" t="s">
         <v>13</v>
       </c>
@@ -3567,7 +4190,7 @@
       <c r="C16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="63" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="53" t="s">
@@ -3584,7 +4207,7 @@
       <c r="C17" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="63" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="53" t="s">
@@ -3601,7 +4224,7 @@
       <c r="C18" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="63" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="53" t="s">
@@ -3611,14 +4234,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="48">
+    <row r="19" ht="24">
       <c r="B19" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="63" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="53" t="s">
@@ -3645,14 +4268,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="24">
+    <row r="21" ht="36">
       <c r="B21" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="63" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="53" t="s">
@@ -3662,7 +4285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="36">
+    <row r="22">
       <c r="B22" s="61" t="s">
         <v>13</v>
       </c>
@@ -3679,14 +4302,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="24">
+    <row r="23" ht="36">
       <c r="B23" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="63" t="s">
         <v>90</v>
       </c>
       <c r="E23" s="53" t="s">
@@ -3703,7 +4326,7 @@
       <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="63" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="53" t="s">
@@ -3713,14 +4336,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" ht="24">
+    <row r="25" ht="25.5">
       <c r="B25" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="54" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="53" t="s">
@@ -3730,14 +4353,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="25.5">
+    <row r="26" ht="24">
       <c r="B26" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="63" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="53" t="s">
@@ -3754,17 +4377,17 @@
       <c r="C27" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="63" t="s">
         <v>107</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" ht="24">
+    <row r="28" ht="36">
       <c r="B28" s="61" t="s">
         <v>13</v>
       </c>
@@ -3774,14 +4397,14 @@
       <c r="D28" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="53" t="s">
         <v>111</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" ht="36">
+    <row r="29" ht="24">
       <c r="B29" s="61" t="s">
         <v>13</v>
       </c>
@@ -3798,14 +4421,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" ht="36">
+    <row r="30">
       <c r="B30" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="63" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="53" t="s">
@@ -3815,14 +4438,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="24">
       <c r="B31" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="63" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="53" t="s">
@@ -3832,14 +4455,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="36">
       <c r="B32" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="63" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="53" t="s">
@@ -3856,7 +4479,7 @@
       <c r="C33" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="63" t="s">
         <v>130</v>
       </c>
       <c r="E33" s="53" t="s">
@@ -3866,7 +4489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" ht="36">
+    <row r="34" ht="24">
       <c r="B34" s="61" t="s">
         <v>13</v>
       </c>
@@ -3890,7 +4513,7 @@
       <c r="C35" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="63" t="s">
         <v>138</v>
       </c>
       <c r="E35" s="53" t="s">
@@ -3924,7 +4547,7 @@
       <c r="C37" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="63" t="s">
         <v>146</v>
       </c>
       <c r="E37" s="53" t="s">
@@ -3941,7 +4564,7 @@
       <c r="C38" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E38" s="53" t="s">
@@ -3958,7 +4581,7 @@
       <c r="C39" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="63" t="s">
         <v>154</v>
       </c>
       <c r="E39" s="53" t="s">
@@ -3968,14 +4591,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" ht="24">
+    <row r="40" ht="36">
       <c r="B40" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="63" t="s">
         <v>158</v>
       </c>
       <c r="E40" s="53" t="s">
@@ -3985,14 +4608,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" ht="36">
+    <row r="41" ht="24">
       <c r="B41" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="63" t="s">
         <v>162</v>
       </c>
       <c r="E41" s="53" t="s">
@@ -4002,14 +4625,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="36">
       <c r="B42" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="63" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="53" t="s">
@@ -4026,7 +4649,7 @@
       <c r="C43" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="63" t="s">
         <v>170</v>
       </c>
       <c r="E43" s="53" t="s">
@@ -4043,7 +4666,7 @@
       <c r="C44" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="63" t="s">
         <v>174</v>
       </c>
       <c r="E44" s="53" t="s">
@@ -4060,7 +4683,7 @@
       <c r="C45" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="63" t="s">
         <v>178</v>
       </c>
       <c r="E45" s="53" t="s">
@@ -4077,7 +4700,7 @@
       <c r="C46" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="63" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="53" t="s">
@@ -4094,7 +4717,7 @@
       <c r="C47" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="63" t="s">
         <v>186</v>
       </c>
       <c r="E47" s="53" t="s">
@@ -4104,7 +4727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" ht="36">
+    <row r="48" ht="24">
       <c r="B48" s="61" t="s">
         <v>13</v>
       </c>
@@ -4128,7 +4751,7 @@
       <c r="C49" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="63" t="s">
         <v>194</v>
       </c>
       <c r="E49" s="53" t="s">
@@ -4138,14 +4761,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" ht="24">
+    <row r="50" ht="36">
       <c r="B50" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="63" t="s">
         <v>198</v>
       </c>
       <c r="E50" s="53" t="s">
@@ -4155,14 +4778,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" ht="36">
+    <row r="51" ht="24">
       <c r="B51" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="63" t="s">
         <v>202</v>
       </c>
       <c r="E51" s="53" t="s">
@@ -4179,7 +4802,7 @@
       <c r="C52" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" s="63" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="53" t="s">
@@ -4189,14 +4812,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" ht="36">
+    <row r="53" ht="24">
       <c r="B53" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="63" t="s">
         <v>210</v>
       </c>
       <c r="E53" s="53" t="s">
@@ -4206,14 +4829,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" ht="24">
+    <row r="54">
       <c r="B54" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="63" t="s">
         <v>214</v>
       </c>
       <c r="E54" s="53" t="s">
@@ -4223,14 +4846,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="24">
       <c r="B55" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="63" t="s">
         <v>218</v>
       </c>
       <c r="E55" s="53" t="s">
@@ -4274,14 +4897,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" ht="36">
+    <row r="58" ht="24">
       <c r="B58" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="63" t="s">
         <v>230</v>
       </c>
       <c r="E58" s="53" t="s">
@@ -4291,7 +4914,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" ht="24">
+    <row r="59">
       <c r="B59" s="61" t="s">
         <v>13</v>
       </c>
@@ -4325,7 +4948,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" ht="24">
+    <row r="61">
       <c r="B61" s="61" t="s">
         <v>13</v>
       </c>
@@ -4366,7 +4989,7 @@
       <c r="C63" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="63" t="s">
         <v>250</v>
       </c>
       <c r="E63" s="53" t="s">
@@ -4376,14 +4999,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" ht="48">
+    <row r="64" ht="24">
       <c r="B64" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D64" s="63" t="s">
         <v>254</v>
       </c>
       <c r="E64" s="53" t="s">
@@ -4400,7 +5023,7 @@
       <c r="C65" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="63" t="s">
         <v>258</v>
       </c>
       <c r="E65" s="53" t="s">
@@ -4410,7 +5033,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="24">
       <c r="B66" s="61" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +5057,7 @@
       <c r="C67" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D67" s="63" t="s">
         <v>266</v>
       </c>
       <c r="E67" s="53" t="s">
@@ -4451,7 +5074,7 @@
       <c r="C68" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="63" t="s">
         <v>270</v>
       </c>
       <c r="E68" s="53" t="s">
@@ -4461,7 +5084,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" ht="24">
+    <row r="69">
       <c r="B69" s="61" t="s">
         <v>13</v>
       </c>
@@ -4485,7 +5108,7 @@
       <c r="C70" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="62" t="s">
+      <c r="D70" s="63" t="s">
         <v>278</v>
       </c>
       <c r="E70" s="53" t="s">
@@ -4495,14 +5118,14 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" ht="36">
+    <row r="71" ht="48">
       <c r="B71" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="63" t="s">
         <v>282</v>
       </c>
       <c r="E71" s="53" t="s">
@@ -4512,14 +5135,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" ht="24">
+    <row r="72">
       <c r="B72" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="62" t="s">
+      <c r="D72" s="63" t="s">
         <v>286</v>
       </c>
       <c r="E72" s="53" t="s">
@@ -4529,14 +5152,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" ht="48">
+    <row r="73" ht="24">
       <c r="B73" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="63" t="s">
         <v>290</v>
       </c>
       <c r="E73" s="53" t="s">
@@ -4546,14 +5169,14 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="36">
       <c r="B74" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="63" t="s">
         <v>294</v>
       </c>
       <c r="E74" s="53" t="s">
@@ -4570,7 +5193,7 @@
       <c r="C75" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D75" s="62" t="s">
+      <c r="D75" s="63" t="s">
         <v>298</v>
       </c>
       <c r="E75" s="53" t="s">
@@ -4580,14 +5203,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" ht="36">
+    <row r="76" ht="24">
       <c r="B76" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="63" t="s">
         <v>302</v>
       </c>
       <c r="E76" s="53" t="s">
@@ -4604,7 +5227,7 @@
       <c r="C77" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="62" t="s">
+      <c r="D77" s="63" t="s">
         <v>306</v>
       </c>
       <c r="E77" s="53" t="s">
@@ -4614,14 +5237,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" ht="24">
+    <row r="78" ht="36">
       <c r="B78" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="63" t="s">
         <v>310</v>
       </c>
       <c r="E78" s="53" t="s">
@@ -4631,14 +5254,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" ht="24">
+    <row r="79" ht="36">
       <c r="B79" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="D79" s="63" t="s">
         <v>314</v>
       </c>
       <c r="E79" s="53" t="s">
@@ -4655,7 +5278,7 @@
       <c r="C80" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="D80" s="62" t="s">
+      <c r="D80" s="63" t="s">
         <v>318</v>
       </c>
       <c r="E80" s="53" t="s">
@@ -4672,7 +5295,7 @@
       <c r="C81" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="D81" s="62" t="s">
+      <c r="D81" s="63" t="s">
         <v>322</v>
       </c>
       <c r="E81" s="53" t="s">
@@ -4682,14 +5305,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" ht="36">
+    <row r="82" ht="24">
       <c r="B82" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="D82" s="62" t="s">
+      <c r="D82" s="63" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="53" t="s">
@@ -4706,7 +5329,7 @@
       <c r="C83" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="D83" s="63" t="s">
         <v>330</v>
       </c>
       <c r="E83" s="53" t="s">
@@ -4716,7 +5339,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" ht="36">
+    <row r="84" ht="24">
       <c r="B84" s="61" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +5380,7 @@
       <c r="C86" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="63" t="s">
         <v>342</v>
       </c>
       <c r="E86" s="53" t="s">
@@ -4767,14 +5390,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" ht="24">
+    <row r="87" ht="36">
       <c r="B87" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="D87" s="62" t="s">
+      <c r="D87" s="63" t="s">
         <v>346</v>
       </c>
       <c r="E87" s="53" t="s">
@@ -4784,14 +5407,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" ht="24">
+    <row r="88" ht="36">
       <c r="B88" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="D88" s="62" t="s">
+      <c r="D88" s="63" t="s">
         <v>350</v>
       </c>
       <c r="E88" s="53" t="s">
@@ -4801,7 +5424,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" ht="24">
+    <row r="89">
       <c r="B89" s="61" t="s">
         <v>13</v>
       </c>
@@ -4818,7 +5441,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" ht="24">
+    <row r="90" ht="36">
       <c r="B90" s="61" t="s">
         <v>13</v>
       </c>
@@ -4835,14 +5458,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" ht="36">
+    <row r="91">
       <c r="B91" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="54" t="s">
         <v>362</v>
       </c>
       <c r="E91" s="53" t="s">
@@ -4852,7 +5475,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" ht="36">
+    <row r="92" ht="24">
       <c r="B92" s="61" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +5492,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" ht="24">
+    <row r="93" ht="36">
       <c r="B93" s="61" t="s">
         <v>13</v>
       </c>
@@ -4886,7 +5509,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" ht="36">
+    <row r="94" ht="24">
       <c r="B94" s="61" t="s">
         <v>13</v>
       </c>
@@ -4903,14 +5526,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="24">
       <c r="B95" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C95" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="62" t="s">
         <v>378</v>
       </c>
       <c r="E95" s="53" t="s">
@@ -4937,14 +5560,14 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" ht="38.25">
+    <row r="97" ht="24">
       <c r="B97" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="62" t="s">
         <v>386</v>
       </c>
       <c r="E97" s="53" t="s">
@@ -4954,14 +5577,14 @@
         <v>388</v>
       </c>
     </row>
-    <row r="98" ht="24">
+    <row r="98" ht="25.5">
       <c r="B98" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="D98" s="62" t="s">
+      <c r="D98" s="54" t="s">
         <v>390</v>
       </c>
       <c r="E98" s="53" t="s">
@@ -4971,14 +5594,14 @@
         <v>392</v>
       </c>
     </row>
-    <row r="99" ht="24">
+    <row r="99" ht="25.5">
       <c r="B99" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="D99" s="62" t="s">
+      <c r="D99" s="64" t="s">
         <v>394</v>
       </c>
       <c r="E99" s="53" t="s">
@@ -4988,14 +5611,14 @@
         <v>396</v>
       </c>
     </row>
-    <row r="100" ht="24">
+    <row r="100" ht="38.25">
       <c r="B100" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="62" t="s">
+      <c r="D100" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E100" s="53" t="s">
@@ -5039,14 +5662,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" ht="25.5">
+    <row r="103" ht="38.25">
       <c r="B103" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="D103" s="63" t="s">
+      <c r="D103" s="54" t="s">
         <v>410</v>
       </c>
       <c r="E103" s="53" t="s">
@@ -5056,7 +5679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" ht="38.25">
+    <row r="104" ht="25.5">
       <c r="B104" s="61" t="s">
         <v>13</v>
       </c>
@@ -5090,418 +5713,398 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="51" t="s">
+    <row r="106" ht="25.5">
+      <c r="B106" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="61"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="52">
-        <v>0</v>
+      <c r="D106" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5">
+      <c r="B107" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="52">
-        <v>0</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" ht="38.25">
+      <c r="B108" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>426</v>
+        <v>277</v>
       </c>
       <c r="D108" s="54" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E108" s="53" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="52">
-        <v>0</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5">
+      <c r="B109" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D109" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E109" s="53" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="52">
-        <v>0</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5">
+      <c r="B110" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D110" s="54" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F110" s="50" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="52">
-        <v>0</v>
-      </c>
-      <c r="C111" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="D111" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="E111" s="53" t="s">
+      <c r="A111" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="F111" s="50" t="s">
+      <c r="B111" s="61"/>
+    </row>
+    <row r="112" ht="25.5">
+      <c r="B112" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="53" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="52">
-        <v>0</v>
-      </c>
-      <c r="C112" s="53" t="s">
+      <c r="D112" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="D112" s="54" t="s">
+      <c r="E112" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="E112" s="53" t="s">
+      <c r="F112" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="F112" s="50" t="s">
+    </row>
+    <row r="113" ht="25.5">
+      <c r="B113" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="53" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="52">
-        <v>0</v>
-      </c>
-      <c r="C113" s="53" t="s">
+      <c r="D113" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="E113" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="F113" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="F113" s="50" t="s">
+    </row>
+    <row r="114" ht="25.5">
+      <c r="B114" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="53" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="52">
-        <v>0</v>
-      </c>
-      <c r="C114" s="53" t="s">
+      <c r="D114" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="D114" s="54" t="s">
+      <c r="E114" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="E114" s="53" t="s">
+      <c r="F114" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="F114" s="50" t="s">
+    </row>
+    <row r="115" ht="25.5">
+      <c r="B115" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="53" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="52">
-        <v>0</v>
-      </c>
-      <c r="C115" s="53" t="s">
+      <c r="D115" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="D115" s="54" t="s">
+      <c r="E115" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="E115" s="53" t="s">
+      <c r="F115" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="F115" s="50" t="s">
+    </row>
+    <row r="116" ht="25.5">
+      <c r="B116" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="53" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="52">
-        <v>0</v>
-      </c>
-      <c r="C116" s="53" t="s">
+      <c r="D116" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="D116" s="54" t="s">
+      <c r="E116" s="53" t="s">
         <v>458</v>
       </c>
-      <c r="E116" s="53" t="s">
+      <c r="F116" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="F116" s="50" t="s">
+    </row>
+    <row r="117">
+      <c r="B117" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="53" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="117">
-      <c r="B117" s="52">
-        <v>0</v>
-      </c>
-      <c r="C117" s="53" t="s">
+    <row r="118" ht="25.5">
+      <c r="B118" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="D117" s="54" t="s">
+      <c r="D118" s="54" t="s">
         <v>462</v>
       </c>
-      <c r="E117" s="53" t="s">
+      <c r="E118" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="F117" s="50" t="s">
+      <c r="F118" s="50" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="118">
-      <c r="B118" s="52">
-        <v>0</v>
-      </c>
-      <c r="C118" s="53" t="s">
+    <row r="119" ht="25.5">
+      <c r="B119" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="D118" s="54" t="s">
+      <c r="D119" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="E118" s="53" t="s">
+      <c r="E119" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="F118" s="50" t="s">
+      <c r="F119" s="50" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="119">
-      <c r="B119" s="52">
-        <v>0</v>
-      </c>
-      <c r="C119" s="53" t="s">
+    <row r="120" ht="25.5">
+      <c r="B120" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="D119" s="54" t="s">
+      <c r="D120" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="E119" s="53" t="s">
+      <c r="E120" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="F119" s="50" t="s">
+      <c r="F120" s="50" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="120">
-      <c r="B120" s="52">
-        <v>0</v>
-      </c>
-      <c r="C120" s="53" t="s">
+    <row r="121" ht="25.5">
+      <c r="B121" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="D120" s="54" t="s">
+      <c r="D121" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="E120" s="53" t="s">
+      <c r="E121" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="F120" s="50" t="s">
+      <c r="F121" s="50" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" s="52">
-        <v>0</v>
-      </c>
-      <c r="C121" s="53" t="s">
+    <row r="122">
+      <c r="B122" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="D121" s="54" t="s">
+      <c r="D122" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E122" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="50" t="s">
+      <c r="F122" s="50" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="122">
-      <c r="B122" s="52">
-        <v>0</v>
-      </c>
-      <c r="C122" s="53" t="s">
+    <row r="123" ht="25.5">
+      <c r="B123" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D123" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E123" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="F122" s="50" t="s">
+      <c r="F123" s="50" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="123">
-      <c r="B123" s="52">
-        <v>0</v>
-      </c>
-      <c r="C123" s="53" t="s">
+    <row r="124" ht="25.5">
+      <c r="B124" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="D123" s="54" t="s">
+      <c r="D124" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="E123" s="53" t="s">
+      <c r="E124" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="F123" s="50" t="s">
+      <c r="F124" s="50" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="124">
-      <c r="B124" s="52">
-        <v>0</v>
-      </c>
-      <c r="C124" s="53" t="s">
+    <row r="125" ht="25.5">
+      <c r="B125" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D125" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="E124" s="53" t="s">
+      <c r="E125" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="50" t="s">
+      <c r="F125" s="50" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" s="52">
-        <v>0</v>
-      </c>
-      <c r="C125" s="53" t="s">
+    <row r="126" ht="25.5">
+      <c r="B126" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="D125" s="54" t="s">
+      <c r="D126" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E126" s="53" t="s">
         <v>495</v>
       </c>
-      <c r="F125" s="50" t="s">
+      <c r="F126" s="50" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" s="52">
-        <v>0</v>
-      </c>
-      <c r="C126" s="53" t="s">
+    <row r="127" ht="25.5">
+      <c r="B127" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="D126" s="54" t="s">
+      <c r="D127" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="E126" s="53" t="s">
+      <c r="E127" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="F126" s="50" t="s">
+      <c r="F127" s="50" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="52">
-        <v>0</v>
-      </c>
-      <c r="C127" s="53" t="s">
+    <row r="128" ht="25.5">
+      <c r="B128" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="D127" s="54" t="s">
+      <c r="D128" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E127" s="53" t="s">
+      <c r="E128" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="F127" s="50" t="s">
+      <c r="F128" s="50" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="52">
-        <v>0</v>
-      </c>
-      <c r="C128" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="D128" s="54" t="s">
-        <v>506</v>
-      </c>
-      <c r="E128" s="53" t="s">
-        <v>506</v>
-      </c>
-      <c r="F128" s="50" t="s">
-        <v>507</v>
-      </c>
-    </row>
     <row r="129">
-      <c r="B129" s="52">
-        <v>0</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>508</v>
-      </c>
-      <c r="D129" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="E129" s="53" t="s">
-        <v>510</v>
-      </c>
-      <c r="F129" s="50" t="s">
-        <v>511</v>
-      </c>
+      <c r="A129" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B129" s="61"/>
     </row>
     <row r="130">
       <c r="B130" s="52">
         <v>0</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D130" s="54" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E130" s="53" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F130" s="50" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131">
@@ -5509,16 +6112,16 @@
         <v>0</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E131" s="53" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F131" s="50" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132">
@@ -5526,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D132" s="54" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E132" s="53" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F132" s="50" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133">
@@ -5543,16 +6146,16 @@
         <v>0</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D133" s="54" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E133" s="53" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F133" s="50" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134">
@@ -5560,16 +6163,16 @@
         <v>0</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D134" s="54" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E134" s="53" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F134" s="50" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135">
@@ -5577,16 +6180,16 @@
         <v>0</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D135" s="54" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E135" s="53" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F135" s="50" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136">
@@ -5594,16 +6197,16 @@
         <v>0</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D136" s="54" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E136" s="53" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F136" s="50" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137">
@@ -5611,16 +6214,16 @@
         <v>0</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D137" s="54" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E137" s="53" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F137" s="50" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138">
@@ -5628,16 +6231,16 @@
         <v>0</v>
       </c>
       <c r="C138" s="53" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D138" s="54" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E138" s="53" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F138" s="50" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139">
@@ -5645,16 +6248,16 @@
         <v>0</v>
       </c>
       <c r="C139" s="53" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E139" s="53" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F139" s="50" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140">
@@ -5662,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="C140" s="53" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E140" s="53" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F140" s="50" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141">
@@ -5679,16 +6282,16 @@
         <v>0</v>
       </c>
       <c r="C141" s="53" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="E141" s="53" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="F141" s="50" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142">
@@ -5696,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E142" s="53" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F142" s="50" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143">
@@ -5713,16 +6316,16 @@
         <v>0</v>
       </c>
       <c r="C143" s="53" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E143" s="53" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F143" s="50" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144">
@@ -5730,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E144" s="53" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F144" s="50" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145">
@@ -5747,16 +6350,16 @@
         <v>0</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E145" s="53" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F145" s="50" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146">
@@ -5764,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D146" s="54" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E146" s="53" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F146" s="50" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147">
@@ -5781,16 +6384,16 @@
         <v>0</v>
       </c>
       <c r="C147" s="53" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E147" s="53" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F147" s="50" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148">
@@ -5798,16 +6401,16 @@
         <v>0</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E148" s="53" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F148" s="50" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149">
@@ -5815,16 +6418,16 @@
         <v>0</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E149" s="53" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F149" s="50" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150">
@@ -5832,16 +6435,16 @@
         <v>0</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E150" s="53" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F150" s="50" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151">
@@ -5849,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E151" s="53" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F151" s="50" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152">
@@ -5866,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E152" s="53" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F152" s="50" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153">
@@ -5883,16 +6486,16 @@
         <v>0</v>
       </c>
       <c r="C153" s="53" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E153" s="53" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F153" s="50" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154">
@@ -5900,16 +6503,16 @@
         <v>0</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E154" s="53" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F154" s="50" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155">
@@ -5917,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="C155" s="53" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E155" s="53" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F155" s="50" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156">
@@ -5934,16 +6537,16 @@
         <v>0</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E156" s="53" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F156" s="50" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="157">
@@ -5951,16 +6554,16 @@
         <v>0</v>
       </c>
       <c r="C157" s="53" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E157" s="53" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F157" s="50" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158">
@@ -5968,16 +6571,16 @@
         <v>0</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E158" s="53" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F158" s="50" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="159">
@@ -5985,16 +6588,16 @@
         <v>0</v>
       </c>
       <c r="C159" s="53" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E159" s="53" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F159" s="50" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="160">
@@ -6002,16 +6605,16 @@
         <v>0</v>
       </c>
       <c r="C160" s="53" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E160" s="53" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F160" s="50" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161">
@@ -6019,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="C161" s="53" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E161" s="53" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F161" s="50" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162">
@@ -6036,21 +6639,701 @@
         <v>0</v>
       </c>
       <c r="C162" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="E162" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="F162" s="50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="52">
+        <v>0</v>
+      </c>
+      <c r="C163" s="53" t="s">
+        <v>634</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="E163" s="53" t="s">
+        <v>636</v>
+      </c>
+      <c r="F163" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="D162" s="54" t="s">
+    </row>
+    <row r="164">
+      <c r="B164" s="52">
+        <v>0</v>
+      </c>
+      <c r="C164" s="53" t="s">
         <v>638</v>
       </c>
-      <c r="E162" s="53" t="s">
+      <c r="D164" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="F162" s="50" t="s">
+      <c r="E164" s="53" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="51" t="s">
+      <c r="F164" s="50" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="52">
+        <v>0</v>
+      </c>
+      <c r="C165" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="E165" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="F165" s="50" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="52">
+        <v>0</v>
+      </c>
+      <c r="C166" s="53" t="s">
+        <v>646</v>
+      </c>
+      <c r="D166" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="E166" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="F166" s="50" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="52">
+        <v>0</v>
+      </c>
+      <c r="C167" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="D167" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="E167" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="F167" s="50" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="52">
+        <v>0</v>
+      </c>
+      <c r="C168" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="E168" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="F168" s="50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="52">
+        <v>0</v>
+      </c>
+      <c r="C169" s="53" t="s">
+        <v>655</v>
+      </c>
+      <c r="D169" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="E169" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="F169" s="50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="52">
+        <v>0</v>
+      </c>
+      <c r="C170" s="53" t="s">
+        <v>656</v>
+      </c>
+      <c r="D170" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="E170" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="F170" s="50" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="52">
+        <v>0</v>
+      </c>
+      <c r="C171" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="D171" s="54" t="s">
+        <v>661</v>
+      </c>
+      <c r="E171" s="53" t="s">
+        <v>662</v>
+      </c>
+      <c r="F171" s="50" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="52">
+        <v>0</v>
+      </c>
+      <c r="C172" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="D172" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E172" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="F172" s="50" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="52">
+        <v>0</v>
+      </c>
+      <c r="C173" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="D173" s="54" t="s">
+        <v>669</v>
+      </c>
+      <c r="E173" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="F173" s="50" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="52">
+        <v>0</v>
+      </c>
+      <c r="C174" s="53" t="s">
+        <v>672</v>
+      </c>
+      <c r="D174" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="E174" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="F174" s="50" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="52">
+        <v>0</v>
+      </c>
+      <c r="C175" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="D175" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="E175" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="F175" s="50" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="52">
+        <v>0</v>
+      </c>
+      <c r="C176" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="D176" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="E176" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="F176" s="50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="52">
+        <v>0</v>
+      </c>
+      <c r="C177" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="D177" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="E177" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="F177" s="50" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="52">
+        <v>0</v>
+      </c>
+      <c r="C178" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="D178" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="E178" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="F178" s="50" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="52">
+        <v>0</v>
+      </c>
+      <c r="C179" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="D179" s="54" t="s">
+        <v>690</v>
+      </c>
+      <c r="E179" s="53" t="s">
+        <v>691</v>
+      </c>
+      <c r="F179" s="50" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="52">
+        <v>0</v>
+      </c>
+      <c r="C180" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="D180" s="54" t="s">
+        <v>694</v>
+      </c>
+      <c r="E180" s="53" t="s">
+        <v>695</v>
+      </c>
+      <c r="F180" s="50" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="52">
+        <v>0</v>
+      </c>
+      <c r="C181" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="D181" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E181" s="53" t="s">
+        <v>699</v>
+      </c>
+      <c r="F181" s="50" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="52">
+        <v>0</v>
+      </c>
+      <c r="C182" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D182" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="E182" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="F182" s="50" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="52">
+        <v>0</v>
+      </c>
+      <c r="C183" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="D183" s="54" t="s">
+        <v>706</v>
+      </c>
+      <c r="E183" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="F183" s="50" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="184" ht="16.5">
+      <c r="B184" s="52">
+        <v>0</v>
+      </c>
+      <c r="C184" s="53" t="s">
+        <v>709</v>
+      </c>
+      <c r="D184" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="E184" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="F184" s="50" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5">
+      <c r="B185" s="52">
+        <v>0</v>
+      </c>
+      <c r="C185" s="53" t="s">
+        <v>711</v>
+      </c>
+      <c r="D185" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E185" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="F185" s="50" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="186" ht="16.5">
+      <c r="B186" s="52">
+        <v>0</v>
+      </c>
+      <c r="C186" s="53" t="s">
+        <v>715</v>
+      </c>
+      <c r="D186" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E186" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="F186" s="50" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="52">
+        <v>0</v>
+      </c>
+      <c r="C187" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="D187" s="54" t="s">
+        <v>717</v>
+      </c>
+      <c r="E187" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="F187" s="50" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="52">
+        <v>0</v>
+      </c>
+      <c r="C188" s="53" t="s">
+        <v>720</v>
+      </c>
+      <c r="D188" s="54" t="s">
+        <v>721</v>
+      </c>
+      <c r="E188" s="53" t="s">
+        <v>722</v>
+      </c>
+      <c r="F188" s="50" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="52">
+        <v>0</v>
+      </c>
+      <c r="C189" s="53" t="s">
+        <v>724</v>
+      </c>
+      <c r="D189" s="54" t="s">
+        <v>725</v>
+      </c>
+      <c r="E189" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="F189" s="50" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="52">
+        <v>0</v>
+      </c>
+      <c r="C190" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="D190" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="E190" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="F190" s="50" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="52">
+        <v>0</v>
+      </c>
+      <c r="C191" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="D191" s="54" t="s">
+        <v>733</v>
+      </c>
+      <c r="E191" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="F191" s="50" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="52">
+        <v>0</v>
+      </c>
+      <c r="C192" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="D192" s="54" t="s">
+        <v>737</v>
+      </c>
+      <c r="E192" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="F192" s="50" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="52">
+        <v>0</v>
+      </c>
+      <c r="C193" s="53" t="s">
+        <v>740</v>
+      </c>
+      <c r="D193" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="E193" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="F193" s="50" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="52">
+        <v>0</v>
+      </c>
+      <c r="C194" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="D194" s="54" t="s">
+        <v>745</v>
+      </c>
+      <c r="E194" s="53" t="s">
+        <v>746</v>
+      </c>
+      <c r="F194" s="50" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="52">
+        <v>0</v>
+      </c>
+      <c r="C195" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="D195" s="54" t="s">
+        <v>749</v>
+      </c>
+      <c r="E195" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="F195" s="50" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="52">
+        <v>0</v>
+      </c>
+      <c r="C196" s="53" t="s">
+        <v>752</v>
+      </c>
+      <c r="D196" s="54" t="s">
+        <v>753</v>
+      </c>
+      <c r="E196" s="53" t="s">
+        <v>754</v>
+      </c>
+      <c r="F196" s="50" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="52">
+        <v>0</v>
+      </c>
+      <c r="C197" s="53" t="s">
+        <v>756</v>
+      </c>
+      <c r="D197" s="54" t="s">
+        <v>757</v>
+      </c>
+      <c r="E197" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="F197" s="50" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="52">
+        <v>0</v>
+      </c>
+      <c r="C198" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="D198" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="E198" s="53" t="s">
+        <v>762</v>
+      </c>
+      <c r="F198" s="50" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="52">
+        <v>0</v>
+      </c>
+      <c r="C199" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="D199" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E199" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="F199" s="50" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="52">
+        <v>0</v>
+      </c>
+      <c r="C200" s="53" t="s">
+        <v>768</v>
+      </c>
+      <c r="D200" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E200" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="F200" s="50" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="52">
+        <v>0</v>
+      </c>
+      <c r="C201" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="D201" s="54" t="s">
+        <v>773</v>
+      </c>
+      <c r="E201" s="53" t="s">
+        <v>774</v>
+      </c>
+      <c r="F201" s="50" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="52">
+        <v>0</v>
+      </c>
+      <c r="C202" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="D202" s="54" t="s">
+        <v>777</v>
+      </c>
+      <c r="E202" s="53" t="s">
+        <v>778</v>
+      </c>
+      <c r="F202" s="50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="51" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
